--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="グラフィック種類" sheetId="16" r:id="rId13"/>
     <sheet name="敵の仕様" sheetId="13" r:id="rId14"/>
     <sheet name="サウンド" sheetId="19" r:id="rId15"/>
+    <sheet name="β版で追加するもの" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="278">
   <si>
     <t>ゲームの大まかな概要</t>
   </si>
@@ -1443,12 +1444,44 @@
     <t>サウンド</t>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>ため攻撃で前方に一定距離飛ばせる(敵を貫通)</t>
+  </si>
+  <si>
+    <t>ダッシュ(一定距離をすばやく移動)</t>
+  </si>
+  <si>
+    <t>アイテム</t>
+  </si>
+  <si>
+    <t>主人公の属性を切り替える</t>
+  </si>
+  <si>
+    <t>ステージクリアで強化</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>鍵を一定数取るとゲート開放</t>
+  </si>
+  <si>
+    <t>影の世界でしか見えない</t>
+  </si>
+  <si>
+    <t>スイッチを押すと出現するブロック</t>
+  </si>
+  <si>
+    <t>消滅後一定時間で再出現</t>
+  </si>
+  <si>
+    <t>ギミックブロック</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1592,6 +1625,19 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2020,7 +2066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2267,6 +2313,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4168,7 +4216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4279,6 +4327,70 @@
         <v>254</v>
       </c>
       <c r="D13" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="97"/>
+      <c r="B9" s="97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>

--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="必要なオブジェクトβ版" sheetId="18" r:id="rId6"/>
     <sheet name="ブロック番号" sheetId="6" r:id="rId7"/>
     <sheet name="マップ概要Stage_1" sheetId="14" r:id="rId8"/>
-    <sheet name="オブジェクトの種類" sheetId="15" r:id="rId9"/>
-    <sheet name="主人公の操作" sheetId="10" r:id="rId10"/>
-    <sheet name="光の世界" sheetId="11" r:id="rId11"/>
-    <sheet name="影の世界" sheetId="12" r:id="rId12"/>
-    <sheet name="グラフィック種類" sheetId="16" r:id="rId13"/>
-    <sheet name="敵の仕様" sheetId="13" r:id="rId14"/>
-    <sheet name="サウンド" sheetId="19" r:id="rId15"/>
-    <sheet name="β版で追加するもの" sheetId="20" r:id="rId16"/>
+    <sheet name="マップ概要Stage_2" sheetId="21" r:id="rId9"/>
+    <sheet name="オブジェクトの種類" sheetId="15" r:id="rId10"/>
+    <sheet name="主人公の操作" sheetId="10" r:id="rId11"/>
+    <sheet name="光の世界" sheetId="11" r:id="rId12"/>
+    <sheet name="影の世界" sheetId="12" r:id="rId13"/>
+    <sheet name="グラフィック種類" sheetId="16" r:id="rId14"/>
+    <sheet name="敵の仕様" sheetId="13" r:id="rId15"/>
+    <sheet name="サウンド" sheetId="19" r:id="rId16"/>
+    <sheet name="β版で追加するもの" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="283">
   <si>
     <t>ゲームの大まかな概要</t>
   </si>
@@ -373,12 +374,6 @@
   </si>
   <si>
     <t>ステージブロック</t>
-  </si>
-  <si>
-    <t>ギミックブロック</t>
-  </si>
-  <si>
-    <t>看板床</t>
   </si>
   <si>
     <t>ゴール</t>
@@ -711,10 +706,6 @@
     <rPh sb="1" eb="3">
       <t>シュツゲン</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>スイッチ</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -1470,10 +1461,82 @@
     <t>スイッチを押すと出現するブロック</t>
   </si>
   <si>
-    <t>消滅後一定時間で再出現</t>
-  </si>
-  <si>
     <t>ギミックブロック</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>消滅するギミックブロック</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>看板とチュートリアル</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>左に対応するスイッチ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>左に対応するスイッチ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>一定期間で消滅と再出現を繰り返すブロック</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>鍵を一定数取るとゲート開放するブロック</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>影の世界でしか見えないブロック</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>下記のゲートを解放するためのアイテム</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>左に対応するアイテム</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2218,6 +2281,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2313,15 +2378,448 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3723,6 +4221,255 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="L3" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L8" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="71"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="F9" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="56"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="56"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="77"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="91"/>
+      <c r="K14" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="79"/>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="82"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C16" s="66"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="85"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C17" s="66"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C18" s="66"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C19" s="66"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C20" s="66"/>
+      <c r="E20" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
+      <c r="M20" s="54"/>
+      <c r="O20" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="71"/>
+    </row>
+    <row r="21" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="66"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
+      <c r="M21" s="54"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="74"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C22" s="66"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="M22" s="54"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="74"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C23" s="66"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="M23" s="54"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="L3:O5"/>
+    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="K14:P16"/>
+    <mergeCell ref="O20:S23"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="E20:K23"/>
+    <mergeCell ref="H14:I16"/>
+  </mergeCells>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3737,7 +4484,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3755,33 +4502,33 @@
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="D4" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="D5" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.5">
@@ -3795,33 +4542,33 @@
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="D8" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="D9" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +4577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -3864,13 +4611,13 @@
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
@@ -3878,10 +4625,10 @@
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
@@ -3889,10 +4636,10 @@
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
@@ -3909,7 +4656,7 @@
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7" s="43"/>
     </row>
@@ -3919,12 +4666,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3935,11 +4682,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -3954,13 +4701,13 @@
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
@@ -3968,7 +4715,7 @@
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>82</v>
@@ -3979,10 +4726,10 @@
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
@@ -3990,7 +4737,7 @@
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
       <c r="D6" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" s="43"/>
     </row>
@@ -4003,7 +4750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -4018,118 +4765,118 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C3" s="62" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C4" s="58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="62" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C9" s="58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C10" s="58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C11" s="58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C12" s="58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C13" s="58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C15" s="62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C16" s="62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C17" s="62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C18" s="62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" s="62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" s="62" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4139,7 +4886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4156,11 +4903,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -4176,10 +4923,10 @@
       <c r="B3" s="37"/>
       <c r="C3" s="46"/>
       <c r="D3" s="39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
@@ -4187,10 +4934,10 @@
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4198,7 +4945,7 @@
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="43"/>
     </row>
@@ -4212,7 +4959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4224,7 +4971,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4233,10 +4980,10 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -4244,7 +4991,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -4252,7 +4999,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -4260,14 +5007,14 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4276,7 +5023,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -4284,7 +5031,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -4292,7 +5039,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -4300,7 +5047,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -4308,7 +5055,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -4316,7 +5063,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -4324,7 +5071,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -4334,12 +5081,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4349,47 +5096,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="96" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="96" t="s">
+      <c r="A7" s="63" t="s">
         <v>273</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97" t="s">
-        <v>275</v>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4468,7 +5220,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4546,7 +5298,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="20" t="s">
@@ -4560,7 +5312,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="61" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="20" t="s">
@@ -4586,7 +5338,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -4600,7 +5352,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -4614,7 +5366,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -4640,7 +5392,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -4654,7 +5406,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -4668,7 +5420,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -4682,7 +5434,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -4696,7 +5448,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -4710,7 +5462,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -4724,7 +5476,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="20" t="s">
@@ -4738,7 +5490,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -4752,7 +5504,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -4778,7 +5530,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4792,7 +5544,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -4806,7 +5558,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -4820,7 +5572,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -4834,7 +5586,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -4848,7 +5600,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4862,7 +5614,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -4876,7 +5628,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -4890,7 +5642,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -4904,7 +5656,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -4918,7 +5670,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -4932,7 +5684,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -4972,7 +5724,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -4986,7 +5738,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -5000,7 +5752,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -5014,7 +5766,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -5028,7 +5780,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -5042,7 +5794,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -5056,7 +5808,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -5070,7 +5822,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -5108,7 +5860,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -5122,7 +5874,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -5148,7 +5900,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -5162,7 +5914,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -5176,7 +5928,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -5203,17 +5955,17 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5253,13 +6005,13 @@
         <v>74</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5268,10 +6020,10 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5300,7 +6052,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5322,7 +6074,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20" t="s">
@@ -5335,7 +6087,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20" t="s">
@@ -5348,7 +6100,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
@@ -5372,7 +6124,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20" t="s">
@@ -5385,7 +6137,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -5398,11 +6150,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -5422,7 +6174,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
@@ -5435,7 +6187,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20" t="s">
@@ -5457,7 +6209,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -5479,7 +6231,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
@@ -5492,7 +6244,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
@@ -5514,7 +6266,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -5536,11 +6288,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -5549,7 +6301,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
@@ -5562,7 +6314,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="s">
@@ -5584,7 +6336,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -5606,11 +6358,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -5619,7 +6371,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20" t="s">
@@ -5632,7 +6384,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
@@ -5645,11 +6397,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -5711,7 +6463,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -5733,7 +6485,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
@@ -5746,7 +6498,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
@@ -5759,7 +6511,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="s">
@@ -5781,7 +6533,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -5803,7 +6555,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20" t="s">
@@ -5816,7 +6568,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20" t="s">
@@ -5840,7 +6592,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20" t="s">
@@ -5895,7 +6647,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -5906,7 +6658,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>92</v>
@@ -5919,7 +6671,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>93</v>
@@ -5932,7 +6684,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>94</v>
@@ -5945,7 +6697,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>95</v>
@@ -5958,7 +6710,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>96</v>
@@ -5971,7 +6723,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>97</v>
@@ -5993,7 +6745,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -6025,7 +6777,7 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6046,7 +6798,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -6066,14 +6818,14 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="I2" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20" t="s">
@@ -6084,7 +6836,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>92</v>
@@ -6093,7 +6845,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20" t="s">
@@ -6104,7 +6856,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="I4" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>93</v>
@@ -6113,7 +6865,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
@@ -6124,7 +6876,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="I5" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>94</v>
@@ -6133,18 +6885,18 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="I6" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>95</v>
@@ -6153,18 +6905,18 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="I7" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>96</v>
@@ -6182,7 +6934,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="I8" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>97</v>
@@ -6191,7 +6943,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
@@ -6204,7 +6956,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
@@ -6215,25 +6967,25 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="I10" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="I11" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>92</v>
@@ -6251,7 +7003,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="I12" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>93</v>
@@ -6260,7 +7012,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20" t="s">
@@ -6271,7 +7023,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>94</v>
@@ -6280,7 +7032,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
@@ -6291,7 +7043,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="I14" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>95</v>
@@ -6300,18 +7052,18 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="I15" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>96</v>
@@ -6327,7 +7079,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>97</v>
@@ -6336,7 +7088,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -6356,14 +7108,14 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20" t="s">
@@ -6374,7 +7126,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="I19" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>92</v>
@@ -6383,7 +7135,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20" t="s">
@@ -6394,7 +7146,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>93</v>
@@ -6403,18 +7155,18 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="I21" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>94</v>
@@ -6423,18 +7175,18 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="I22" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>95</v>
@@ -6450,7 +7202,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="I23" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>96</v>
@@ -6459,7 +7211,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6468,7 +7220,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="I24" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>97</v>
@@ -6488,25 +7240,25 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="I26" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
@@ -6517,7 +7269,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="I27" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>92</v>
@@ -6526,7 +7278,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20" t="s">
@@ -6537,7 +7289,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="I28" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>93</v>
@@ -6553,7 +7305,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="I29" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J29" s="20" t="s">
         <v>94</v>
@@ -6562,7 +7314,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6571,7 +7323,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="I30" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>95</v>
@@ -6589,7 +7341,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="I31" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>96</v>
@@ -6598,18 +7350,18 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="I32" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>97</v>
@@ -6618,7 +7370,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
@@ -6631,7 +7383,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
@@ -6642,25 +7394,25 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="I34" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="I35" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>92</v>
@@ -6669,18 +7421,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="I36" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>93</v>
@@ -6698,7 +7450,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="I37" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>94</v>
@@ -6707,7 +7459,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
@@ -6718,7 +7470,7 @@
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="I38" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>95</v>
@@ -6727,7 +7479,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>54</v>
@@ -6738,7 +7490,7 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="I39" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J39" s="20" t="s">
         <v>96</v>
@@ -6756,7 +7508,7 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="I40" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>97</v>
@@ -6774,7 +7526,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -6783,7 +7535,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="I42" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J42" s="20"/>
     </row>
@@ -6798,7 +7550,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="I43" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J43" s="20" t="s">
         <v>92</v>
@@ -6806,7 +7558,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20" t="s">
@@ -6817,7 +7569,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="I44" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J44" s="20" t="s">
         <v>93</v>
@@ -6825,7 +7577,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20" t="s">
@@ -6836,7 +7588,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="I45" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J45" s="20" t="s">
         <v>94</v>
@@ -6844,7 +7596,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20" t="s">
@@ -6855,7 +7607,7 @@
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="I46" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>95</v>
@@ -6863,18 +7615,18 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="I47" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>96</v>
@@ -6889,7 +7641,7 @@
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="I48" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>97</v>
@@ -6897,7 +7649,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -6917,12 +7669,12 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="I50" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20" t="s">
@@ -6933,15 +7685,15 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="I51" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20" t="s">
@@ -6952,10 +7704,10 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="I52" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
@@ -6969,15 +7721,15 @@
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="I53" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20" t="s">
@@ -6990,7 +7742,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20" t="s">
@@ -7001,26 +7753,26 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="I55" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="I56" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
@@ -7034,29 +7786,29 @@
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="I57" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="I58" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
@@ -7068,15 +7820,15 @@
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="I59" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -7085,7 +7837,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>98</v>
@@ -7095,23 +7847,23 @@
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="I61" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="I62" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
@@ -7120,15 +7872,15 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="I63" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -7137,10 +7889,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -7149,10 +7901,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -7161,10 +7913,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
@@ -7207,10 +7959,10 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="D60:XFD61 A68:XFD68 A71:XFD1048576 A60:A62 B69:XFD69 C70:XFD70 B61:B62 A64:A67 A1:XFD59 D65:XFD67 D62:I64 K62:XFD64 J62:J63">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"×"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7221,20 +7973,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7242,52 +7994,100 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7301,7 +8101,7 @@
   <dimension ref="A1:CV30"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="J32" sqref="J32:AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7310,54 +8110,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="A1" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS6" s="63" t="s">
-        <v>129</v>
+      <c r="AS6" s="65" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS7" s="64"/>
+      <c r="AS7" s="66"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS8" s="64"/>
+      <c r="AS8" s="66"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS9" s="64"/>
+      <c r="AS9" s="66"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS10" s="64"/>
+      <c r="AS10" s="66"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS11" s="64"/>
+      <c r="AS11" s="66"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.4">
       <c r="N12" s="51"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
       <c r="V12" s="49"/>
-      <c r="AS12" s="64"/>
+      <c r="AS12" s="66"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C13" s="53"/>
@@ -7365,7 +8165,7 @@
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
       <c r="V13" s="49"/>
-      <c r="AS13" s="64"/>
+      <c r="AS13" s="66"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C14" s="52"/>
@@ -7374,9 +8174,9 @@
       <c r="U14" s="49"/>
       <c r="V14" s="49"/>
       <c r="X14" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS14" s="64"/>
+        <v>126</v>
+      </c>
+      <c r="AS14" s="66"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A15" s="48"/>
@@ -7906,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BL21" s="59">
         <v>0</v>
@@ -8208,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BL22" s="59">
         <v>0</v>
@@ -8492,25 +9292,25 @@
         <v>0</v>
       </c>
       <c r="BE23" s="59">
+        <v>7</v>
+      </c>
+      <c r="BF23" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="59">
         <v>6</v>
-      </c>
-      <c r="BF23" s="59">
-        <v>0</v>
-      </c>
-      <c r="BG23" s="59">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="59">
-        <v>0</v>
-      </c>
-      <c r="BI23" s="59">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="59">
-        <v>0</v>
-      </c>
-      <c r="BK23" s="59">
-        <v>2</v>
       </c>
       <c r="BL23" s="59">
         <v>0</v>
@@ -8812,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BL24" s="59">
         <v>0</v>
@@ -9114,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BL25" s="59">
         <v>0</v>
@@ -9416,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BL26" s="59">
         <v>0</v>
@@ -9718,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BL27" s="59">
         <v>0</v>
@@ -10020,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BL28" s="59">
         <v>0</v>
@@ -10119,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="CR28" s="59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS28" s="59">
         <v>0</v>
@@ -10160,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" s="59">
         <v>0</v>
@@ -10214,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB29" s="59">
         <v>0</v>
@@ -10232,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH29" s="59">
         <v>0</v>
@@ -10295,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="BB29" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC29" s="59">
         <v>0</v>
@@ -10322,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BL29" s="59">
         <v>0</v>
@@ -10379,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="CD29" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE29" s="59">
         <v>0</v>
@@ -10744,44 +11544,55 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
-  <conditionalFormatting sqref="AY29:CV30 AY24:BD24 BF24:BJ24 BE23:BE24 AY25:BJ28 BL24:CV28 A21:AX30">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+  <conditionalFormatting sqref="AY30:CV30 AY24:BD24 BF24:BJ24 BE23:BE24 A21:AX30 AY25:BJ29 BL24:CV29">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY21:CV22 AY23:BD23 BF23:CV23 BK24:BK28">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="AY21:CV21 AY23:BD23 BF23:BJ23 AY22:BJ22 BL22:CV23 BK22:BK29">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE23">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10792,249 +11603,3106 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:CV13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="47"/>
+    <col min="1" max="16384" width="3.625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="L3" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="69"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="L8" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="69"/>
-    </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="86" t="s">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A1" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="F9" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="56"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="72"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="56"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="75"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="56"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="56"/>
-    </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H14" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="89"/>
-      <c r="K14" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
-    </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="C16" s="64"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="83"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C17" s="64"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C18" s="64"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C19" s="64"/>
-      <c r="M19" s="54"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C20" s="64"/>
-      <c r="E20" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
-      <c r="M20" s="54"/>
-      <c r="O20" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="69"/>
-    </row>
-    <row r="21" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="64"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
-      <c r="M21" s="54"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C22" s="64"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-      <c r="M22" s="54"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="72"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C23" s="64"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
-      <c r="M23" s="54"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A4" s="59">
+        <v>1</v>
+      </c>
+      <c r="B4" s="59">
+        <v>0</v>
+      </c>
+      <c r="C4" s="59">
+        <v>0</v>
+      </c>
+      <c r="D4" s="59">
+        <v>0</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0</v>
+      </c>
+      <c r="F4" s="59">
+        <v>0</v>
+      </c>
+      <c r="G4" s="59">
+        <v>0</v>
+      </c>
+      <c r="H4" s="59">
+        <v>0</v>
+      </c>
+      <c r="I4" s="59">
+        <v>0</v>
+      </c>
+      <c r="J4" s="59">
+        <v>0</v>
+      </c>
+      <c r="K4" s="59">
+        <v>0</v>
+      </c>
+      <c r="L4" s="59">
+        <v>0</v>
+      </c>
+      <c r="M4" s="59">
+        <v>0</v>
+      </c>
+      <c r="N4" s="59">
+        <v>0</v>
+      </c>
+      <c r="O4" s="59">
+        <v>0</v>
+      </c>
+      <c r="P4" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>0</v>
+      </c>
+      <c r="R4" s="59">
+        <v>0</v>
+      </c>
+      <c r="S4" s="59">
+        <v>0</v>
+      </c>
+      <c r="T4" s="59">
+        <v>0</v>
+      </c>
+      <c r="U4" s="59">
+        <v>0</v>
+      </c>
+      <c r="V4" s="59">
+        <v>0</v>
+      </c>
+      <c r="W4" s="59">
+        <v>0</v>
+      </c>
+      <c r="X4" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A5" s="59">
+        <v>1</v>
+      </c>
+      <c r="B5" s="59">
+        <v>0</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0</v>
+      </c>
+      <c r="F5" s="59">
+        <v>0</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59">
+        <v>0</v>
+      </c>
+      <c r="K5" s="59">
+        <v>0</v>
+      </c>
+      <c r="L5" s="59">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59">
+        <v>0</v>
+      </c>
+      <c r="N5" s="59">
+        <v>0</v>
+      </c>
+      <c r="O5" s="59">
+        <v>0</v>
+      </c>
+      <c r="P5" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>0</v>
+      </c>
+      <c r="R5" s="59">
+        <v>0</v>
+      </c>
+      <c r="S5" s="59">
+        <v>0</v>
+      </c>
+      <c r="T5" s="59">
+        <v>0</v>
+      </c>
+      <c r="U5" s="59">
+        <v>0</v>
+      </c>
+      <c r="V5" s="59">
+        <v>0</v>
+      </c>
+      <c r="W5" s="59">
+        <v>0</v>
+      </c>
+      <c r="X5" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A6" s="59">
+        <v>1</v>
+      </c>
+      <c r="B6" s="59">
+        <v>0</v>
+      </c>
+      <c r="C6" s="59">
+        <v>0</v>
+      </c>
+      <c r="D6" s="59">
+        <v>0</v>
+      </c>
+      <c r="E6" s="59">
+        <v>0</v>
+      </c>
+      <c r="F6" s="59">
+        <v>0</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0</v>
+      </c>
+      <c r="H6" s="59">
+        <v>0</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <v>0</v>
+      </c>
+      <c r="K6" s="59">
+        <v>0</v>
+      </c>
+      <c r="L6" s="59">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59">
+        <v>0</v>
+      </c>
+      <c r="N6" s="59">
+        <v>0</v>
+      </c>
+      <c r="O6" s="59">
+        <v>0</v>
+      </c>
+      <c r="P6" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>0</v>
+      </c>
+      <c r="R6" s="59">
+        <v>0</v>
+      </c>
+      <c r="S6" s="59">
+        <v>0</v>
+      </c>
+      <c r="T6" s="59">
+        <v>0</v>
+      </c>
+      <c r="U6" s="59">
+        <v>0</v>
+      </c>
+      <c r="V6" s="59">
+        <v>0</v>
+      </c>
+      <c r="W6" s="59">
+        <v>0</v>
+      </c>
+      <c r="X6" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A7" s="59">
+        <v>1</v>
+      </c>
+      <c r="B7" s="59">
+        <v>0</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59">
+        <v>0</v>
+      </c>
+      <c r="K7" s="59">
+        <v>0</v>
+      </c>
+      <c r="L7" s="59">
+        <v>0</v>
+      </c>
+      <c r="M7" s="59">
+        <v>0</v>
+      </c>
+      <c r="N7" s="59">
+        <v>0</v>
+      </c>
+      <c r="O7" s="59">
+        <v>0</v>
+      </c>
+      <c r="P7" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>0</v>
+      </c>
+      <c r="R7" s="59">
+        <v>0</v>
+      </c>
+      <c r="S7" s="59">
+        <v>0</v>
+      </c>
+      <c r="T7" s="59">
+        <v>0</v>
+      </c>
+      <c r="U7" s="59">
+        <v>0</v>
+      </c>
+      <c r="V7" s="59">
+        <v>0</v>
+      </c>
+      <c r="W7" s="59">
+        <v>0</v>
+      </c>
+      <c r="X7" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A8" s="59">
+        <v>1</v>
+      </c>
+      <c r="B8" s="59">
+        <v>0</v>
+      </c>
+      <c r="C8" s="59">
+        <v>0</v>
+      </c>
+      <c r="D8" s="59">
+        <v>0</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0</v>
+      </c>
+      <c r="F8" s="59">
+        <v>0</v>
+      </c>
+      <c r="G8" s="59">
+        <v>0</v>
+      </c>
+      <c r="H8" s="59">
+        <v>0</v>
+      </c>
+      <c r="I8" s="59">
+        <v>0</v>
+      </c>
+      <c r="J8" s="59">
+        <v>0</v>
+      </c>
+      <c r="K8" s="59">
+        <v>0</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0</v>
+      </c>
+      <c r="M8" s="59">
+        <v>0</v>
+      </c>
+      <c r="N8" s="59">
+        <v>0</v>
+      </c>
+      <c r="O8" s="59">
+        <v>0</v>
+      </c>
+      <c r="P8" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>0</v>
+      </c>
+      <c r="R8" s="59">
+        <v>0</v>
+      </c>
+      <c r="S8" s="59">
+        <v>0</v>
+      </c>
+      <c r="T8" s="59">
+        <v>0</v>
+      </c>
+      <c r="U8" s="59">
+        <v>0</v>
+      </c>
+      <c r="V8" s="59">
+        <v>0</v>
+      </c>
+      <c r="W8" s="59">
+        <v>0</v>
+      </c>
+      <c r="X8" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A9" s="59">
+        <v>1</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0</v>
+      </c>
+      <c r="F9" s="59">
+        <v>0</v>
+      </c>
+      <c r="G9" s="59">
+        <v>0</v>
+      </c>
+      <c r="H9" s="59">
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0</v>
+      </c>
+      <c r="L9" s="59">
+        <v>0</v>
+      </c>
+      <c r="M9" s="59">
+        <v>0</v>
+      </c>
+      <c r="N9" s="59">
+        <v>0</v>
+      </c>
+      <c r="O9" s="59">
+        <v>0</v>
+      </c>
+      <c r="P9" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>0</v>
+      </c>
+      <c r="R9" s="59">
+        <v>0</v>
+      </c>
+      <c r="S9" s="59">
+        <v>0</v>
+      </c>
+      <c r="T9" s="59">
+        <v>0</v>
+      </c>
+      <c r="U9" s="59">
+        <v>0</v>
+      </c>
+      <c r="V9" s="59">
+        <v>0</v>
+      </c>
+      <c r="W9" s="59">
+        <v>0</v>
+      </c>
+      <c r="X9" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A10" s="59">
+        <v>1</v>
+      </c>
+      <c r="B10" s="59">
+        <v>0</v>
+      </c>
+      <c r="C10" s="59">
+        <v>0</v>
+      </c>
+      <c r="D10" s="59">
+        <v>0</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0</v>
+      </c>
+      <c r="F10" s="59">
+        <v>0</v>
+      </c>
+      <c r="G10" s="59">
+        <v>0</v>
+      </c>
+      <c r="H10" s="59">
+        <v>0</v>
+      </c>
+      <c r="I10" s="59">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="59">
+        <v>0</v>
+      </c>
+      <c r="L10" s="59">
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
+        <v>0</v>
+      </c>
+      <c r="N10" s="59">
+        <v>0</v>
+      </c>
+      <c r="O10" s="59">
+        <v>0</v>
+      </c>
+      <c r="P10" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="59">
+        <v>0</v>
+      </c>
+      <c r="R10" s="59">
+        <v>0</v>
+      </c>
+      <c r="S10" s="59">
+        <v>0</v>
+      </c>
+      <c r="T10" s="59">
+        <v>0</v>
+      </c>
+      <c r="U10" s="59">
+        <v>0</v>
+      </c>
+      <c r="V10" s="59">
+        <v>0</v>
+      </c>
+      <c r="W10" s="59">
+        <v>0</v>
+      </c>
+      <c r="X10" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A11" s="59">
+        <v>1</v>
+      </c>
+      <c r="B11" s="59">
+        <v>0</v>
+      </c>
+      <c r="C11" s="59">
+        <v>0</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0</v>
+      </c>
+      <c r="F11" s="59">
+        <v>0</v>
+      </c>
+      <c r="G11" s="59">
+        <v>0</v>
+      </c>
+      <c r="H11" s="59">
+        <v>0</v>
+      </c>
+      <c r="I11" s="59">
+        <v>0</v>
+      </c>
+      <c r="J11" s="59">
+        <v>0</v>
+      </c>
+      <c r="K11" s="59">
+        <v>0</v>
+      </c>
+      <c r="L11" s="59">
+        <v>0</v>
+      </c>
+      <c r="M11" s="59">
+        <v>0</v>
+      </c>
+      <c r="N11" s="59">
+        <v>0</v>
+      </c>
+      <c r="O11" s="59">
+        <v>0</v>
+      </c>
+      <c r="P11" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="59">
+        <v>0</v>
+      </c>
+      <c r="R11" s="59">
+        <v>0</v>
+      </c>
+      <c r="S11" s="59">
+        <v>0</v>
+      </c>
+      <c r="T11" s="59">
+        <v>0</v>
+      </c>
+      <c r="U11" s="59">
+        <v>0</v>
+      </c>
+      <c r="V11" s="59">
+        <v>0</v>
+      </c>
+      <c r="W11" s="59">
+        <v>0</v>
+      </c>
+      <c r="X11" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="59">
+        <v>4</v>
+      </c>
+      <c r="CS11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A12" s="59">
+        <v>1</v>
+      </c>
+      <c r="B12" s="59">
+        <v>0</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
+      <c r="F12" s="59">
+        <v>0</v>
+      </c>
+      <c r="G12" s="59">
+        <v>0</v>
+      </c>
+      <c r="H12" s="59">
+        <v>0</v>
+      </c>
+      <c r="I12" s="59">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59">
+        <v>0</v>
+      </c>
+      <c r="K12" s="59">
+        <v>0</v>
+      </c>
+      <c r="L12" s="59">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
+        <v>0</v>
+      </c>
+      <c r="N12" s="59">
+        <v>0</v>
+      </c>
+      <c r="O12" s="59">
+        <v>0</v>
+      </c>
+      <c r="P12" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>0</v>
+      </c>
+      <c r="R12" s="59">
+        <v>0</v>
+      </c>
+      <c r="S12" s="59">
+        <v>0</v>
+      </c>
+      <c r="T12" s="59">
+        <v>0</v>
+      </c>
+      <c r="U12" s="59">
+        <v>0</v>
+      </c>
+      <c r="V12" s="59">
+        <v>0</v>
+      </c>
+      <c r="W12" s="59">
+        <v>0</v>
+      </c>
+      <c r="X12" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="59">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CM12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="59">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A13" s="59">
+        <v>1</v>
+      </c>
+      <c r="B13" s="59">
+        <v>1</v>
+      </c>
+      <c r="C13" s="59">
+        <v>1</v>
+      </c>
+      <c r="D13" s="59">
+        <v>1</v>
+      </c>
+      <c r="E13" s="59">
+        <v>1</v>
+      </c>
+      <c r="F13" s="59">
+        <v>1</v>
+      </c>
+      <c r="G13" s="59">
+        <v>1</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1</v>
+      </c>
+      <c r="I13" s="59">
+        <v>1</v>
+      </c>
+      <c r="J13" s="59">
+        <v>1</v>
+      </c>
+      <c r="K13" s="59">
+        <v>1</v>
+      </c>
+      <c r="L13" s="59">
+        <v>1</v>
+      </c>
+      <c r="M13" s="59">
+        <v>1</v>
+      </c>
+      <c r="N13" s="59">
+        <v>1</v>
+      </c>
+      <c r="O13" s="59">
+        <v>1</v>
+      </c>
+      <c r="P13" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>1</v>
+      </c>
+      <c r="R13" s="59">
+        <v>1</v>
+      </c>
+      <c r="S13" s="59">
+        <v>1</v>
+      </c>
+      <c r="T13" s="59">
+        <v>1</v>
+      </c>
+      <c r="U13" s="59">
+        <v>1</v>
+      </c>
+      <c r="V13" s="59">
+        <v>1</v>
+      </c>
+      <c r="W13" s="59">
+        <v>1</v>
+      </c>
+      <c r="X13" s="59">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="59">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="59">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BV13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BW13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BX13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="59">
+        <v>1</v>
+      </c>
+      <c r="BZ13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CA13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CB13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CC13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CD13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CE13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CF13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CG13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CH13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CI13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CJ13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CK13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CL13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CM13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CN13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CO13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CP13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CQ13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CR13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CS13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CT13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CU13" s="59">
+        <v>1</v>
+      </c>
+      <c r="CV13" s="59">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L3:O5"/>
-    <mergeCell ref="L8:O10"/>
-    <mergeCell ref="K14:P16"/>
-    <mergeCell ref="O20:S23"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F9:H12"/>
-    <mergeCell ref="C15:C23"/>
-    <mergeCell ref="E20:K23"/>
-    <mergeCell ref="H14:I16"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
+  <conditionalFormatting sqref="CP7:CV11 A12:CV13 A4:CO11">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CP4:CV6">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="301">
   <si>
     <t>ゲームの大まかな概要</t>
   </si>
@@ -88,7 +88,7 @@
     <rPh sb="17" eb="19">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>影の世界で動かせるもので光の世界での自分の動きを進めるという形になる。</t>
@@ -452,7 +452,7 @@
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>木
@@ -464,14 +464,14 @@
     <rPh sb="4" eb="5">
       <t>イタ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ステージ構成</t>
     <rPh sb="4" eb="6">
       <t>コウセイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>チェックポイント
@@ -492,7 +492,7 @@
     <rPh sb="40" eb="41">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>主人公（プレイヤー）
@@ -521,7 +521,7 @@
     <rPh sb="32" eb="34">
       <t>メザ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>床
@@ -542,7 +542,7 @@
     <rPh sb="28" eb="29">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ヒビ
@@ -550,7 +550,7 @@
     <rPh sb="7" eb="9">
       <t>トウチャク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>看板
@@ -567,25 +567,25 @@
     <rPh sb="15" eb="16">
       <t>オシ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>オブジェクト種類</t>
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>背景</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ひび</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>木の板</t>
@@ -595,81 +595,81 @@
     <rPh sb="2" eb="3">
       <t>イタ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>看板</t>
     <rPh sb="0" eb="2">
       <t>カンバン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>スイッチ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>壁</t>
     <rPh sb="0" eb="1">
       <t>カベ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>床</t>
     <rPh sb="0" eb="1">
       <t>ユカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ブロック</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>歩きモーション</t>
     <rPh sb="0" eb="1">
       <t>アル</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
       <t>シュジンコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>グラフィック種類</t>
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
     </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>主人公オブジェクト：Obj_Hero</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>主人公オブジェクト：Obj_Hero</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>主人公の攻撃オブジェクト:Obj_Attack</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ギミックブロック：Obj_G_Block○○←〇にはギミックの種類や番号振り分ける</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>スイッチブロック：Obj_Switch</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵オブジェクト:Obj_Enemy</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メインオブジェクト:Obj_Main</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵出現ブロック</t>
@@ -679,43 +679,43 @@
     <rPh sb="1" eb="3">
       <t>シュツゲン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵に当たるとリトライ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵と接触</t>
@@ -725,7 +725,7 @@
     <rPh sb="2" eb="4">
       <t>セッショク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影→光の描写</t>
@@ -738,14 +738,14 @@
     <rPh sb="4" eb="6">
       <t>ビョウシャ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>クリア時モーション</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>光(影)の世界でしか見えないスイッチ
@@ -781,11 +781,11 @@
     <rPh sb="27" eb="29">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ストーリー</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界の制限時間
@@ -819,104 +819,104 @@
     <rPh sb="21" eb="22">
       <t>シン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ステージブロック：Obj_Block</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>グラフィック作成(壁や床など複数)</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>グラフィック作成</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>スイッチが押されると消滅</t>
     <rPh sb="10" eb="12">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>立ちモージョン</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>クリア時モーション</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>強化時のグラフィック</t>
@@ -926,58 +926,58 @@
     <rPh sb="2" eb="3">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>立ち</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消滅</t>
     <rPh sb="0" eb="2">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ステージセレクト</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>クリア</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>強化アイテム</t>
     <rPh sb="0" eb="2">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>G_Block</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>クリア時モーション追加</t>
@@ -987,7 +987,7 @@
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>アイテムで強化されていく→複数ある</t>
@@ -997,7 +997,7 @@
     <rPh sb="13" eb="15">
       <t>フクスウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影→光の移動描写(ふわ～って感じ)</t>
@@ -1016,19 +1016,19 @@
     <rPh sb="14" eb="15">
       <t>カン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>属性の追加</t>
@@ -1038,7 +1038,7 @@
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>射程等の変化</t>
@@ -1051,19 +1051,19 @@
     <rPh sb="4" eb="6">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>その他仕様追加</t>
@@ -1076,7 +1076,7 @@
     <rPh sb="5" eb="7">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>複数用意する場合、色の変更など</t>
@@ -1095,41 +1095,41 @@
     <rPh sb="11" eb="13">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>攻撃</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>不動オブジェクト化?</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>強化アイテム:Obj_Item</t>
     <rPh sb="0" eb="2">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>グラフィック作成</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>主人公と接触で消える</t>
@@ -1142,7 +1142,7 @@
     <rPh sb="7" eb="8">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>フラグ切り替え</t>
@@ -1152,62 +1152,62 @@
     <rPh sb="5" eb="6">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_3</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_4</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_5</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_6</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>シーン作成</t>
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>背景等読み込み・表示</t>
@@ -1226,33 +1226,33 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>エンターでステージセレクトへ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>タイトル画面:SceneTitle＆Obj_Title</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ステージセレクト画面:SceneSelect&amp;ObjSelect</t>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>方向キーでステージを選んでエンターで入る</t>
@@ -1265,7 +1265,7 @@
     <rPh sb="18" eb="19">
       <t>ハイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>選択されたシーンへ飛ぶ</t>
@@ -1275,29 +1275,29 @@
     <rPh sb="9" eb="10">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ポーズ画面:Obj_Pause</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>グラフィック表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ボタンで元に戻る</t>
@@ -1307,7 +1307,7 @@
     <rPh sb="6" eb="7">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇ボタンでポーズ画面出す</t>
@@ -1317,14 +1317,14 @@
     <rPh sb="10" eb="11">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>アイテム取得</t>
     <rPh sb="4" eb="6">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>スイッチ切り替え</t>
@@ -1334,11 +1334,11 @@
     <rPh sb="6" eb="7">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>リトライ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>世界切り替え</t>
@@ -1351,116 +1351,96 @@
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>カーソル移動</t>
     <rPh sb="4" eb="6">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>決定</t>
     <rPh sb="0" eb="2">
       <t>ケッテイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>効果音</t>
     <rPh sb="0" eb="3">
       <t>コウカオン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ステージ内</t>
     <rPh sb="4" eb="5">
       <t>ナイ</t>
     </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ため攻撃で前方に一定距離飛ばせる(敵を貫通)</t>
+  </si>
+  <si>
+    <t>ダッシュ(一定距離をすばやく移動)</t>
+  </si>
+  <si>
+    <t>アイテム</t>
+  </si>
+  <si>
+    <t>主人公の属性を切り替える</t>
+  </si>
+  <si>
+    <t>ステージクリアで強化</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>クリア</t>
+    <t>スイッチを押すと出現するブロック</t>
+  </si>
+  <si>
+    <t>ギミックブロック</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ステージセレクト</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>サウンド</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ため攻撃で前方に一定距離飛ばせる(敵を貫通)</t>
-  </si>
-  <si>
-    <t>ダッシュ(一定距離をすばやく移動)</t>
-  </si>
-  <si>
-    <t>アイテム</t>
-  </si>
-  <si>
-    <t>主人公の属性を切り替える</t>
-  </si>
-  <si>
-    <t>ステージクリアで強化</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>スイッチを押すと出現するブロック</t>
-  </si>
-  <si>
-    <t>ギミックブロック</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>消滅するギミックブロック</t>
     <rPh sb="0" eb="2">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>看板とチュートリアル</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>左に対応するスイッチ</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>左に対応するスイッチ</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>一定期間で消滅と再出現を繰り返すブロック</t>
@@ -1476,15 +1456,15 @@
     <rPh sb="14" eb="15">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵を一定数取るとゲート開放するブロック</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界でしか見えないブロック</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>下記のゲートを解放するためのアイテム</t>
@@ -1494,24 +1474,24 @@
     <rPh sb="7" eb="9">
       <t>カイホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界でしか見えない</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界
 でしか
 見えない</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>(仮)</t>
     <rPh sb="1" eb="2">
       <t>カリ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界でしか見えないブロック
@@ -1549,21 +1529,21 @@
     <rPh sb="44" eb="45">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消滅するギミックブロック</t>
     <rPh sb="0" eb="2">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>出現するギミックブロック</t>
     <rPh sb="0" eb="2">
       <t>シュツゲン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消滅するギミックブロック
@@ -1587,7 +1567,7 @@
     <rPh sb="39" eb="40">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>消滅するギミックブロックに対応するスイッチ</t>
@@ -1597,7 +1577,7 @@
     <rPh sb="13" eb="15">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>出現するギミックブロック
@@ -1633,7 +1613,7 @@
     <rPh sb="50" eb="52">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -1650,7 +1630,7 @@
       </rPr>
       <t>ot image</t>
     </r>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>出現するギミックブロックに対応するスイッチ</t>
@@ -1660,7 +1640,7 @@
     <rPh sb="13" eb="15">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>出現するギミックブロックに対応するスイッチ
@@ -1699,7 +1679,7 @@
     <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消滅するギミックブロックに対応するスイッチ
@@ -1726,11 +1706,11 @@
     <rPh sb="49" eb="51">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>鍵を一定数取るとゲート開放</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>鍵を一定数取るとゲート開放</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>鍵を一定数取り、触れると消えるブロック</t>
@@ -1740,7 +1720,7 @@
     <rPh sb="12" eb="13">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -1757,11 +1737,11 @@
       </rPr>
       <t>ot image</t>
     </r>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵となるアイテム</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>一定間隔で出現と消滅を繰り返すブロック</t>
@@ -1783,7 +1763,7 @@
     <rPh sb="13" eb="14">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>一定間隔で出現と消滅を繰り返すブロック
@@ -1821,7 +1801,7 @@
     <rPh sb="30" eb="32">
       <t>テンメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵になるアイテム
@@ -1848,7 +1828,7 @@
     <rPh sb="40" eb="42">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵を一定数取り、触れると消えるブロック
@@ -1878,19 +1858,48 @@
     <rPh sb="55" eb="56">
       <t>ケ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>6に対応するスイッチ</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>8に対応するスイッチ</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10に対応するスイッチ</t>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2545,14 +2554,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2581,47 +2590,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2630,65 +2639,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2697,283 +2706,227 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3075,25 +3028,32 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3102,22 +3062,28 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3166,105 +3132,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4914,7 +4781,7 @@
       <c r="K10" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4934,69 +4801,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="L3" s="92" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="L3" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="108"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="111"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="100"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="114"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L8" s="92" t="s">
+      <c r="L8" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="F9" s="92" t="s">
+      <c r="D9" s="118"/>
+      <c r="F9" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="55"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
       <c r="S9" s="66"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
@@ -5007,90 +4874,90 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="55"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="100"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="114"/>
       <c r="R10" s="73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S10" s="69"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="92" t="s">
+      <c r="U10" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="94"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="108"/>
       <c r="Z10" s="70"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="55"/>
       <c r="S11" s="69"/>
-      <c r="T11" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="U11" s="95"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="97"/>
+      <c r="T11" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="111"/>
       <c r="Z11" s="70"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="55"/>
       <c r="S12" s="69"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="97"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="111"/>
       <c r="Z12" s="70"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="S13" s="69"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="100"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="114"/>
       <c r="Z13" s="70"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H14" s="114" t="s">
+      <c r="H14" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="115"/>
-      <c r="K14" s="92" t="s">
+      <c r="I14" s="120"/>
+      <c r="K14" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="102"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
       <c r="S14" s="71"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
@@ -5103,401 +4970,423 @@
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="105"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="103"/>
     </row>
     <row r="19" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="M19" s="94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C20" s="94"/>
+      <c r="E20" s="130" t="s">
         <v>283</v>
       </c>
-      <c r="M19" s="91" t="s">
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="97"/>
+      <c r="M20" s="94"/>
+      <c r="O20" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="97"/>
+    </row>
+    <row r="21" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="94"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="100"/>
+      <c r="M21" s="94"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="100"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C22" s="94"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="M22" s="94"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="100"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
+      <c r="M23" s="94"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="103"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="M24" s="94"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C28" s="125" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C29" s="126"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C30" s="126"/>
+      <c r="E30" s="127" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C31" s="126"/>
+      <c r="D31" s="87" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C20" s="91"/>
-      <c r="E20" s="113" t="s">
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="C32" s="126"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C33" s="126"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="86"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C37" s="128" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" s="104" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C38" s="129"/>
+      <c r="M38" s="105"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C39" s="129"/>
+      <c r="E39" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="102"/>
-      <c r="M20" s="91"/>
-      <c r="O20" s="122" t="s">
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
+      <c r="M39" s="105"/>
+      <c r="O39" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="80"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C40" s="129"/>
+      <c r="D40" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="83"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="O40" s="81"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="83"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C41" s="129"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="83"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="83"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C42" s="129"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="86"/>
+    </row>
+    <row r="46" spans="3:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="102"/>
-    </row>
-    <row r="21" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="91"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="105"/>
-      <c r="M21" s="91"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="105"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C22" s="91"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
-      <c r="M22" s="91"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="105"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="E23" s="106"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
-      <c r="M23" s="91"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="108"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="M24" s="91"/>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C28" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C29" s="79"/>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C30" s="79"/>
-      <c r="E30" s="80" t="s">
-        <v>282</v>
-      </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="82"/>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C31" s="79"/>
-      <c r="D31" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C32" s="79"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C33" s="79"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="88"/>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C37" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="M37" s="127" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C38" s="90"/>
-      <c r="M38" s="128"/>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C39" s="90"/>
-      <c r="E39" s="123" t="s">
-        <v>287</v>
-      </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="82"/>
-      <c r="M39" s="128"/>
-      <c r="O39" s="123" t="s">
-        <v>290</v>
-      </c>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="82"/>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C40" s="90"/>
-      <c r="D40" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="85"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="O40" s="83"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="S40" s="84"/>
-      <c r="T40" s="85"/>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C41" s="90"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="85"/>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C42" s="90"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="88"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="88"/>
-    </row>
-    <row r="46" spans="3:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="130" t="s">
+      <c r="M46" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="M46" s="130" t="s">
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C47" s="93"/>
+      <c r="M47" s="93"/>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C48" s="93"/>
+      <c r="M48" s="93"/>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C49" s="93"/>
+      <c r="E49" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="80"/>
+      <c r="M49" s="93"/>
+      <c r="O49" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="80"/>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C50" s="93"/>
+      <c r="D50" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="81"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="83"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="O50" s="81"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="83"/>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C51" s="93"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="83"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="83"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C52" s="93"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="86"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="86"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C56" s="90" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C57" s="91"/>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="C58" s="91"/>
+      <c r="E58" s="78" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C47" s="129"/>
-      <c r="M47" s="129"/>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C48" s="129"/>
-      <c r="M48" s="129"/>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C49" s="129"/>
-      <c r="E49" s="123" t="s">
-        <v>299</v>
-      </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="82"/>
-      <c r="M49" s="129"/>
-      <c r="O49" s="123" t="s">
-        <v>298</v>
-      </c>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="82"/>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C50" s="129"/>
-      <c r="D50" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="E50" s="83"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="85"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="O50" s="83"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="85"/>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C51" s="129"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="85"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="85"/>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C52" s="129"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="88"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="87"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="88"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C56" s="131" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C57" s="132"/>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C58" s="132"/>
-      <c r="E58" s="123" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="82"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="80"/>
     </row>
     <row r="59" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C59" s="132"/>
-      <c r="D59" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="85"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="81"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="83"/>
     </row>
     <row r="60" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C60" s="132"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="85"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="83"/>
     </row>
     <row r="61" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C61" s="132"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="88"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="E30:J33"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="E39:J42"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E20:K23"/>
+    <mergeCell ref="L3:O5"/>
+    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="K14:P16"/>
+    <mergeCell ref="U10:Y13"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="O20:U23"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="O39:T42"/>
+    <mergeCell ref="N40:N42"/>
+    <mergeCell ref="D31:D33"/>
     <mergeCell ref="O49:T52"/>
     <mergeCell ref="N50:N52"/>
     <mergeCell ref="C56:C61"/>
@@ -5507,67 +5396,45 @@
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="E49:J52"/>
     <mergeCell ref="M46:M52"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="O20:U23"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="O39:T42"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="L3:O5"/>
-    <mergeCell ref="L8:O10"/>
-    <mergeCell ref="K14:P16"/>
-    <mergeCell ref="U10:Y13"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F9:H12"/>
-    <mergeCell ref="H14:I16"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="E30:J33"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="E39:J42"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E20:K23"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5683,7 +5550,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5772,7 +5639,7 @@
       <c r="E7" s="43"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5793,11 +5660,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -5856,7 +5723,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5991,7 +5858,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6014,11 +5881,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -6065,7 +5932,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6187,7 +6054,7 @@
       <c r="D13" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6228,7 +6095,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -6236,12 +6103,12 @@
         <v>270</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -6252,11 +6119,11 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6376,7 +6243,7 @@
       <c r="H9" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7064,19 +6931,19 @@
       <c r="H49" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7146,7 +7013,7 @@
       <c r="D4" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7886,9 +7753,9 @@
       <c r="G62" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9068,12 +8935,12 @@
       <c r="G71" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="D60:XFD61 A68:XFD68 A71:XFD1048576 A60:A62 B69:XFD69 C70:XFD70 B61:B62 A64:A67 A1:XFD59 D65:XFD67 D62:I64 K62:XFD64 J62:J63">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"×"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9084,119 +8951,143 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E18" sqref="E18:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="133">
+        <v>1</v>
+      </c>
+      <c r="B2" s="135" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="C2" s="135"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="133">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="133" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="133">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="136" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="133">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="135" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="C5" s="135"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="133">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="B6" s="133" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="133">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="133" t="s">
         <v>271</v>
       </c>
-      <c r="F7">
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="F7" s="133">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="G7" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="133">
         <v>8</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8">
+      <c r="B8" s="137" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="F8" s="133">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="133" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="133">
+        <v>10</v>
+      </c>
+      <c r="B9" s="134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133">
+        <v>11</v>
+      </c>
+      <c r="G9" s="133" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="133">
+        <v>12</v>
+      </c>
+      <c r="B10" s="133" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="133">
+        <v>0</v>
+      </c>
+      <c r="B11" s="133" t="s">
         <v>103</v>
       </c>
+      <c r="C11" s="133"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9205,8 +9096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV30"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="CL34" sqref="CL34:CV34"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12648,55 +12539,55 @@
     <mergeCell ref="AS6:AS14"/>
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="AY30:CV30 AY24:BD24 BF24:BJ24 BE23:BE24 A21:AX30 AY25:BJ29 BL24:CV29">
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY21:CV21 AY23:BD23 BF23:BJ23 AY22:BJ22 BL22:CV23 BK22:BK29">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE23">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12708,10 +12599,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV13"/>
+  <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="BI8" sqref="BI8:BI12"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W15" sqref="G15:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12719,28 +12610,911 @@
     <col min="1" max="16384" width="3.625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.4">
-      <c r="A1" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-    </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.4">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+    <row r="1" spans="1:100" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58">
+        <v>1</v>
+      </c>
+      <c r="B1" s="58">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58">
+        <v>0</v>
+      </c>
+      <c r="D1" s="58">
+        <v>0</v>
+      </c>
+      <c r="E1" s="58">
+        <v>0</v>
+      </c>
+      <c r="F1" s="58">
+        <v>0</v>
+      </c>
+      <c r="G1" s="58">
+        <v>0</v>
+      </c>
+      <c r="H1" s="58">
+        <v>0</v>
+      </c>
+      <c r="I1" s="58">
+        <v>0</v>
+      </c>
+      <c r="J1" s="58">
+        <v>0</v>
+      </c>
+      <c r="K1" s="58">
+        <v>0</v>
+      </c>
+      <c r="L1" s="58">
+        <v>0</v>
+      </c>
+      <c r="M1" s="58">
+        <v>0</v>
+      </c>
+      <c r="N1" s="58">
+        <v>0</v>
+      </c>
+      <c r="O1" s="58">
+        <v>0</v>
+      </c>
+      <c r="P1" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="58">
+        <v>0</v>
+      </c>
+      <c r="R1" s="58">
+        <v>0</v>
+      </c>
+      <c r="S1" s="58">
+        <v>0</v>
+      </c>
+      <c r="T1" s="58">
+        <v>0</v>
+      </c>
+      <c r="U1" s="58">
+        <v>0</v>
+      </c>
+      <c r="V1" s="58">
+        <v>0</v>
+      </c>
+      <c r="W1" s="58">
+        <v>0</v>
+      </c>
+      <c r="X1" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BK1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="58">
+        <v>1</v>
+      </c>
+      <c r="BM1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BO1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BS1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BU1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BW1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="58">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="58">
+        <v>6</v>
+      </c>
+      <c r="CA1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CD1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CE1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CF1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CI1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CL1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CM1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CO1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CP1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CQ1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CR1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CS1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CT1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CU1" s="58">
+        <v>0</v>
+      </c>
+      <c r="CV1" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58">
+        <v>0</v>
+      </c>
+      <c r="C2" s="58">
+        <v>0</v>
+      </c>
+      <c r="D2" s="58">
+        <v>0</v>
+      </c>
+      <c r="E2" s="58">
+        <v>0</v>
+      </c>
+      <c r="F2" s="58">
+        <v>0</v>
+      </c>
+      <c r="G2" s="58">
+        <v>0</v>
+      </c>
+      <c r="H2" s="58">
+        <v>0</v>
+      </c>
+      <c r="I2" s="58">
+        <v>0</v>
+      </c>
+      <c r="J2" s="58">
+        <v>0</v>
+      </c>
+      <c r="K2" s="58">
+        <v>0</v>
+      </c>
+      <c r="L2" s="58">
+        <v>0</v>
+      </c>
+      <c r="M2" s="58">
+        <v>0</v>
+      </c>
+      <c r="N2" s="58">
+        <v>0</v>
+      </c>
+      <c r="O2" s="58">
+        <v>0</v>
+      </c>
+      <c r="P2" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="58">
+        <v>0</v>
+      </c>
+      <c r="R2" s="58">
+        <v>0</v>
+      </c>
+      <c r="S2" s="58">
+        <v>0</v>
+      </c>
+      <c r="T2" s="58">
+        <v>0</v>
+      </c>
+      <c r="U2" s="58">
+        <v>0</v>
+      </c>
+      <c r="V2" s="58">
+        <v>0</v>
+      </c>
+      <c r="W2" s="58">
+        <v>0</v>
+      </c>
+      <c r="X2" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="58">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="58">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="58">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="58">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="58">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="58">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="58">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="58">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="58">
+        <v>6</v>
+      </c>
+      <c r="CA2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="58">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="58">
+        <v>0</v>
+      </c>
+      <c r="C3" s="58">
+        <v>0</v>
+      </c>
+      <c r="D3" s="58">
+        <v>0</v>
+      </c>
+      <c r="E3" s="58">
+        <v>0</v>
+      </c>
+      <c r="F3" s="58">
+        <v>0</v>
+      </c>
+      <c r="G3" s="58">
+        <v>0</v>
+      </c>
+      <c r="H3" s="58">
+        <v>0</v>
+      </c>
+      <c r="I3" s="58">
+        <v>0</v>
+      </c>
+      <c r="J3" s="58">
+        <v>0</v>
+      </c>
+      <c r="K3" s="58">
+        <v>0</v>
+      </c>
+      <c r="L3" s="58">
+        <v>0</v>
+      </c>
+      <c r="M3" s="58">
+        <v>11</v>
+      </c>
+      <c r="N3" s="58">
+        <v>0</v>
+      </c>
+      <c r="O3" s="58">
+        <v>0</v>
+      </c>
+      <c r="P3" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="58">
+        <v>0</v>
+      </c>
+      <c r="R3" s="58">
+        <v>0</v>
+      </c>
+      <c r="S3" s="58">
+        <v>0</v>
+      </c>
+      <c r="T3" s="58">
+        <v>0</v>
+      </c>
+      <c r="U3" s="58">
+        <v>0</v>
+      </c>
+      <c r="V3" s="58">
+        <v>0</v>
+      </c>
+      <c r="W3" s="58">
+        <v>0</v>
+      </c>
+      <c r="X3" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="58">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="58">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="58">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="58">
+        <v>11</v>
+      </c>
+      <c r="AP3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="58">
+        <v>7</v>
+      </c>
+      <c r="BL3" s="58">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BN3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BO3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BP3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BQ3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BR3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BS3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BT3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BU3" s="58">
+        <v>6</v>
+      </c>
+      <c r="BV3" s="58">
+        <v>10</v>
+      </c>
+      <c r="BW3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="58">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="58">
+        <v>6</v>
+      </c>
+      <c r="CA3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="58">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A4" s="58">
@@ -12774,19 +13548,19 @@
         <v>0</v>
       </c>
       <c r="K4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="58">
         <v>0</v>
@@ -12831,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="58">
         <v>0</v>
@@ -12840,13 +13614,13 @@
         <v>0</v>
       </c>
       <c r="AG4" s="58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH4" s="58">
         <v>0</v>
       </c>
       <c r="AI4" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="58">
         <v>0</v>
@@ -12855,22 +13629,22 @@
         <v>0</v>
       </c>
       <c r="AL4" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM4" s="58">
         <v>0</v>
       </c>
       <c r="AN4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="58">
         <v>0</v>
@@ -12930,10 +13704,10 @@
         <v>0</v>
       </c>
       <c r="BK4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM4" s="58">
         <v>0</v>
@@ -12963,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="BV4" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW4" s="58">
         <v>0</v>
@@ -12975,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CA4" s="58">
         <v>0</v>
@@ -12993,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="CF4" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CG4" s="58">
         <v>0</v>
@@ -13136,16 +13910,16 @@
         <v>10</v>
       </c>
       <c r="AE5" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="58">
         <v>10</v>
@@ -13157,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM5" s="58">
         <v>0</v>
@@ -13235,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BM5" s="58">
         <v>0</v>
@@ -13262,10 +14036,10 @@
         <v>0</v>
       </c>
       <c r="BU5" s="58">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BV5" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW5" s="58">
         <v>0</v>
@@ -13274,10 +14048,10 @@
         <v>0</v>
       </c>
       <c r="BY5" s="58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BZ5" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CA5" s="58">
         <v>0</v>
@@ -13295,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="CF5" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CG5" s="58">
         <v>0</v>
@@ -13384,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N6" s="58">
         <v>0</v>
@@ -13435,169 +14209,169 @@
         <v>0</v>
       </c>
       <c r="AD6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="58">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="58">
+        <v>6</v>
+      </c>
+      <c r="BM6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="58">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="58">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="58">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="58">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="58">
         <v>10</v>
       </c>
-      <c r="AE6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="58">
+      <c r="BW6" s="58">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="58">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="58">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="58">
+        <v>6</v>
+      </c>
+      <c r="CA6" s="58">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="58">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="58">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="58">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="58">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="58">
         <v>10</v>
-      </c>
-      <c r="AJ6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="58">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="58">
-        <v>11</v>
-      </c>
-      <c r="AS6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="58">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="58">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="58">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="58">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="58">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="58">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="58">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="58">
-        <v>0</v>
       </c>
       <c r="CG6" s="58">
         <v>0</v>
@@ -13680,19 +14454,19 @@
         <v>0</v>
       </c>
       <c r="K7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="58">
         <v>0</v>
@@ -13737,169 +14511,169 @@
         <v>0</v>
       </c>
       <c r="AD7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="58">
+        <v>6</v>
+      </c>
+      <c r="AM7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="58">
+        <v>6</v>
+      </c>
+      <c r="BM7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="58">
         <v>10</v>
       </c>
-      <c r="AE7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="58">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="58">
+      <c r="BW7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="58">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="58">
+        <v>6</v>
+      </c>
+      <c r="CA7" s="58">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="58">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="58">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="58">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="58">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="58">
         <v>10</v>
-      </c>
-      <c r="AJ7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="58">
-        <v>6</v>
-      </c>
-      <c r="AO7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="58">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="58">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="58">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="58">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="58">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="58">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="58">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="58">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="58">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="58">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="58">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="58">
-        <v>0</v>
       </c>
       <c r="CG7" s="58">
         <v>0</v>
@@ -14039,170 +14813,170 @@
         <v>0</v>
       </c>
       <c r="AD8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="58">
+        <v>6</v>
+      </c>
+      <c r="AM8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="58">
+        <v>6</v>
+      </c>
+      <c r="BM8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="58">
         <v>10</v>
       </c>
-      <c r="AE8" s="58">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="58">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="58">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="58">
+      <c r="BW8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="58">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="58">
+        <v>6</v>
+      </c>
+      <c r="CA8" s="58">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="58">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="58">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="58">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="58">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="58">
         <v>10</v>
       </c>
-      <c r="AJ8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="58">
-        <v>6</v>
-      </c>
-      <c r="AO8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="58">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="58">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="58">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="58">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="58">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="58">
-        <v>0</v>
-      </c>
-      <c r="CD8" s="58">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="58">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="58">
-        <v>0</v>
-      </c>
       <c r="CG8" s="58">
         <v>0</v>
       </c>
@@ -14237,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS8" s="58">
         <v>0</v>
@@ -14320,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X9" s="58">
         <v>0</v>
@@ -14365,86 +15139,86 @@
         <v>0</v>
       </c>
       <c r="AL9" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM9" s="58">
         <v>0</v>
       </c>
       <c r="AN9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="58">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="58">
+        <v>4</v>
+      </c>
+      <c r="BG9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="58">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="58">
         <v>6</v>
       </c>
-      <c r="AO9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="58">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="58">
-        <v>0</v>
-      </c>
       <c r="BM9" s="58">
         <v>0</v>
       </c>
@@ -14473,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="BV9" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW9" s="58">
         <v>0</v>
@@ -14485,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="BZ9" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CA9" s="58">
         <v>0</v>
@@ -14497,13 +15271,13 @@
         <v>0</v>
       </c>
       <c r="CD9" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CE9" s="58">
         <v>0</v>
       </c>
       <c r="CF9" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CG9" s="58">
         <v>0</v>
@@ -14559,1275 +15333,366 @@
         <v>1</v>
       </c>
       <c r="B10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="58">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="58">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="58">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="58">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="58">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="58">
+        <v>10</v>
+      </c>
+      <c r="AT10" s="58">
+        <v>10</v>
+      </c>
+      <c r="AU10" s="58">
+        <v>10</v>
+      </c>
+      <c r="AV10" s="58">
+        <v>10</v>
+      </c>
+      <c r="AW10" s="58">
+        <v>10</v>
+      </c>
+      <c r="AX10" s="58">
+        <v>10</v>
+      </c>
+      <c r="AY10" s="58">
+        <v>10</v>
+      </c>
+      <c r="AZ10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="58">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="58">
         <v>6</v>
       </c>
-      <c r="AO10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="58">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="58">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="58">
-        <v>0</v>
-      </c>
       <c r="BP10" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BQ10" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BR10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU10" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV10" s="58">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.4">
-      <c r="A11" s="58">
-        <v>1</v>
-      </c>
-      <c r="B11" s="58">
-        <v>0</v>
-      </c>
-      <c r="C11" s="58">
-        <v>0</v>
-      </c>
-      <c r="D11" s="58">
-        <v>0</v>
-      </c>
-      <c r="E11" s="58">
-        <v>0</v>
-      </c>
-      <c r="F11" s="58">
-        <v>0</v>
-      </c>
-      <c r="G11" s="58">
-        <v>0</v>
-      </c>
-      <c r="H11" s="58">
-        <v>0</v>
-      </c>
-      <c r="I11" s="58">
-        <v>0</v>
-      </c>
-      <c r="J11" s="58">
-        <v>0</v>
-      </c>
-      <c r="K11" s="58">
-        <v>0</v>
-      </c>
-      <c r="L11" s="58">
-        <v>0</v>
-      </c>
-      <c r="M11" s="58">
-        <v>0</v>
-      </c>
-      <c r="N11" s="58">
-        <v>0</v>
-      </c>
-      <c r="O11" s="58">
-        <v>0</v>
-      </c>
-      <c r="P11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="58">
-        <v>0</v>
-      </c>
-      <c r="R11" s="58">
-        <v>0</v>
-      </c>
-      <c r="S11" s="58">
-        <v>0</v>
-      </c>
-      <c r="T11" s="58">
-        <v>0</v>
-      </c>
-      <c r="U11" s="58">
-        <v>0</v>
-      </c>
-      <c r="V11" s="58">
-        <v>0</v>
-      </c>
-      <c r="W11" s="58">
-        <v>0</v>
-      </c>
-      <c r="X11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="58">
-        <v>6</v>
-      </c>
-      <c r="AO11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="58">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="58">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CF11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CP11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="58">
-        <v>3</v>
-      </c>
-      <c r="CS11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CT11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CU11" s="58">
-        <v>0</v>
-      </c>
-      <c r="CV11" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.4">
-      <c r="A12" s="58">
-        <v>1</v>
-      </c>
-      <c r="B12" s="58">
-        <v>0</v>
-      </c>
-      <c r="C12" s="58">
-        <v>0</v>
-      </c>
-      <c r="D12" s="58">
-        <v>0</v>
-      </c>
-      <c r="E12" s="58">
-        <v>0</v>
-      </c>
-      <c r="F12" s="58">
-        <v>0</v>
-      </c>
-      <c r="G12" s="58">
-        <v>0</v>
-      </c>
-      <c r="H12" s="58">
-        <v>0</v>
-      </c>
-      <c r="I12" s="58">
-        <v>0</v>
-      </c>
-      <c r="J12" s="58">
-        <v>0</v>
-      </c>
-      <c r="K12" s="58">
-        <v>0</v>
-      </c>
-      <c r="L12" s="58">
-        <v>0</v>
-      </c>
-      <c r="M12" s="58">
-        <v>0</v>
-      </c>
-      <c r="N12" s="58">
-        <v>0</v>
-      </c>
-      <c r="O12" s="58">
-        <v>0</v>
-      </c>
-      <c r="P12" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="58">
-        <v>0</v>
-      </c>
-      <c r="R12" s="58">
-        <v>0</v>
-      </c>
-      <c r="S12" s="58">
-        <v>0</v>
-      </c>
-      <c r="T12" s="58">
-        <v>0</v>
-      </c>
-      <c r="U12" s="58">
-        <v>0</v>
-      </c>
-      <c r="V12" s="58">
-        <v>0</v>
-      </c>
-      <c r="W12" s="58">
-        <v>4</v>
-      </c>
-      <c r="X12" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="58">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="58">
-        <v>6</v>
-      </c>
-      <c r="AO12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="58">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="58">
-        <v>4</v>
-      </c>
-      <c r="BG12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BT12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BV12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BW12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="58">
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CB12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CD12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CE12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CF12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CG12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CH12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CI12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CK12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CL12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CM12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CN12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CO12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CP12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CR12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CS12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CT12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CU12" s="58">
-        <v>0</v>
-      </c>
-      <c r="CV12" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.4">
-      <c r="A13" s="58">
-        <v>1</v>
-      </c>
-      <c r="B13" s="58">
-        <v>1</v>
-      </c>
-      <c r="C13" s="58">
-        <v>1</v>
-      </c>
-      <c r="D13" s="58">
-        <v>1</v>
-      </c>
-      <c r="E13" s="58">
-        <v>1</v>
-      </c>
-      <c r="F13" s="58">
-        <v>1</v>
-      </c>
-      <c r="G13" s="58">
-        <v>1</v>
-      </c>
-      <c r="H13" s="58">
-        <v>1</v>
-      </c>
-      <c r="I13" s="58">
-        <v>1</v>
-      </c>
-      <c r="J13" s="58">
-        <v>1</v>
-      </c>
-      <c r="K13" s="58">
-        <v>1</v>
-      </c>
-      <c r="L13" s="58">
-        <v>1</v>
-      </c>
-      <c r="M13" s="58">
-        <v>1</v>
-      </c>
-      <c r="N13" s="58">
-        <v>1</v>
-      </c>
-      <c r="O13" s="58">
-        <v>10</v>
-      </c>
-      <c r="P13" s="58">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="58">
-        <v>10</v>
-      </c>
-      <c r="R13" s="58">
-        <v>1</v>
-      </c>
-      <c r="S13" s="58">
-        <v>1</v>
-      </c>
-      <c r="T13" s="58">
-        <v>1</v>
-      </c>
-      <c r="U13" s="58">
-        <v>1</v>
-      </c>
-      <c r="V13" s="58">
-        <v>1</v>
-      </c>
-      <c r="W13" s="58">
-        <v>1</v>
-      </c>
-      <c r="X13" s="58">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="58">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="58">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="58">
-        <v>10</v>
-      </c>
-      <c r="AX13" s="58">
-        <v>10</v>
-      </c>
-      <c r="AY13" s="58">
-        <v>10</v>
-      </c>
-      <c r="AZ13" s="58">
-        <v>10</v>
-      </c>
-      <c r="BA13" s="58">
-        <v>10</v>
-      </c>
-      <c r="BB13" s="58">
-        <v>10</v>
-      </c>
-      <c r="BC13" s="58">
-        <v>10</v>
-      </c>
-      <c r="BD13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BH13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BI13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BJ13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BL13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BM13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BN13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BO13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BP13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BQ13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BR13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BS13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BT13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BU13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BV13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BW13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BX13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BY13" s="58">
-        <v>1</v>
-      </c>
-      <c r="BZ13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CA13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CB13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CC13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CD13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CE13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CF13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CG13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CH13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CI13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CJ13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CK13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CL13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CM13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CN13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CO13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CP13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CQ13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CR13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CS13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CT13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CU13" s="58">
-        <v>1</v>
-      </c>
-      <c r="CV13" s="58">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="13"/>
-  <conditionalFormatting sqref="CP7:CV11 A4:CO11 A12:CV13">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+  <phoneticPr fontId="14"/>
+  <conditionalFormatting sqref="A5:AN9 A3:AQ4 AO5:AQ5 A10:CV10 BM5:BM9 CA1:CO3 AR3:BT5 AO6:BT9 A1:BZ2 BU3:BZ9 CA4:CV9">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP4:CV6">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+  <conditionalFormatting sqref="CP1:CV3">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:CV13">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:CV10">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <rPh sb="17" eb="19">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>影の世界で動かせるもので光の世界での自分の動きを進めるという形になる。</t>
@@ -452,7 +452,7 @@
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>木
@@ -464,14 +464,14 @@
     <rPh sb="4" eb="5">
       <t>イタ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ステージ構成</t>
     <rPh sb="4" eb="6">
       <t>コウセイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>チェックポイント
@@ -492,7 +492,7 @@
     <rPh sb="40" eb="41">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>主人公（プレイヤー）
@@ -521,7 +521,7 @@
     <rPh sb="32" eb="34">
       <t>メザ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>床
@@ -542,7 +542,7 @@
     <rPh sb="28" eb="29">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ヒビ
@@ -550,7 +550,7 @@
     <rPh sb="7" eb="9">
       <t>トウチャク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>看板
@@ -567,25 +567,25 @@
     <rPh sb="15" eb="16">
       <t>オシ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>オブジェクト種類</t>
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>背景</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ひび</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>木の板</t>
@@ -595,81 +595,81 @@
     <rPh sb="2" eb="3">
       <t>イタ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>看板</t>
     <rPh sb="0" eb="2">
       <t>カンバン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>スイッチ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>壁</t>
     <rPh sb="0" eb="1">
       <t>カベ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>床</t>
     <rPh sb="0" eb="1">
       <t>ユカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ブロック</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>歩きモーション</t>
     <rPh sb="0" eb="1">
       <t>アル</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
       <t>シュジンコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>グラフィック種類</t>
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
     </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>主人公オブジェクト：Obj_Hero</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>主人公オブジェクト：Obj_Hero</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>主人公の攻撃オブジェクト:Obj_Attack</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ギミックブロック：Obj_G_Block○○←〇にはギミックの種類や番号振り分ける</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>スイッチブロック：Obj_Switch</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵オブジェクト:Obj_Enemy</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メインオブジェクト:Obj_Main</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵出現ブロック</t>
@@ -679,43 +679,43 @@
     <rPh sb="1" eb="3">
       <t>シュツゲン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵に当たるとリトライ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>敵と接触</t>
@@ -725,7 +725,7 @@
     <rPh sb="2" eb="4">
       <t>セッショク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影→光の描写</t>
@@ -738,14 +738,14 @@
     <rPh sb="4" eb="6">
       <t>ビョウシャ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>クリア時モーション</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>光(影)の世界でしか見えないスイッチ
@@ -781,11 +781,11 @@
     <rPh sb="27" eb="29">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ストーリー</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界の制限時間
@@ -819,104 +819,104 @@
     <rPh sb="21" eb="22">
       <t>シン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ステージブロック：Obj_Block</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>グラフィック作成(壁や床など複数)</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>グラフィック作成</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>スイッチが押されると消滅</t>
     <rPh sb="10" eb="12">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>立ちモージョン</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>クリア時モーション</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>強化時のグラフィック</t>
@@ -926,58 +926,58 @@
     <rPh sb="2" eb="3">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>立ち</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消滅</t>
     <rPh sb="0" eb="2">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ステージセレクト</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>クリア</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>強化アイテム</t>
     <rPh sb="0" eb="2">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>G_Block</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>クリア時モーション追加</t>
@@ -987,7 +987,7 @@
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>アイテムで強化されていく→複数ある</t>
@@ -997,7 +997,7 @@
     <rPh sb="13" eb="15">
       <t>フクスウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影→光の移動描写(ふわ～って感じ)</t>
@@ -1016,19 +1016,19 @@
     <rPh sb="14" eb="15">
       <t>カン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>属性の追加</t>
@@ -1038,7 +1038,7 @@
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>射程等の変化</t>
@@ -1051,19 +1051,19 @@
     <rPh sb="4" eb="6">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>その他仕様追加</t>
@@ -1076,7 +1076,7 @@
     <rPh sb="5" eb="7">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>複数用意する場合、色の変更など</t>
@@ -1095,41 +1095,41 @@
     <rPh sb="11" eb="13">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>攻撃</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>不動オブジェクト化?</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>強化アイテム:Obj_Item</t>
     <rPh sb="0" eb="2">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>グラフィック作成</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>主人公と接触で消える</t>
@@ -1142,7 +1142,7 @@
     <rPh sb="7" eb="8">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>フラグ切り替え</t>
@@ -1152,62 +1152,62 @@
     <rPh sb="5" eb="6">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_3</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_4</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_5</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>メイン画面:Stage_6</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>シーン作成</t>
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>背景等読み込み・表示</t>
@@ -1226,33 +1226,33 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>エンターでステージセレクトへ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>タイトル画面:SceneTitle＆Obj_Title</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ステージセレクト画面:SceneSelect&amp;ObjSelect</t>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>方向キーでステージを選んでエンターで入る</t>
@@ -1265,7 +1265,7 @@
     <rPh sb="18" eb="19">
       <t>ハイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>選択されたシーンへ飛ぶ</t>
@@ -1275,29 +1275,29 @@
     <rPh sb="9" eb="10">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ポーズ画面:Obj_Pause</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>グラフィック表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>ボタンで元に戻る</t>
@@ -1307,7 +1307,7 @@
     <rPh sb="6" eb="7">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>〇ボタンでポーズ画面出す</t>
@@ -1317,14 +1317,14 @@
     <rPh sb="10" eb="11">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>アイテム取得</t>
     <rPh sb="4" eb="6">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>スイッチ切り替え</t>
@@ -1334,11 +1334,11 @@
     <rPh sb="6" eb="7">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>リトライ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>世界切り替え</t>
@@ -1351,96 +1351,96 @@
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>カーソル移動</t>
     <rPh sb="4" eb="6">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>決定</t>
     <rPh sb="0" eb="2">
       <t>ケッテイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>効果音</t>
     <rPh sb="0" eb="3">
       <t>コウカオン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ステージ内</t>
     <rPh sb="4" eb="5">
       <t>ナイ</t>
     </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ため攻撃で前方に一定距離飛ばせる(敵を貫通)</t>
+  </si>
+  <si>
+    <t>ダッシュ(一定距離をすばやく移動)</t>
+  </si>
+  <si>
+    <t>アイテム</t>
+  </si>
+  <si>
+    <t>主人公の属性を切り替える</t>
+  </si>
+  <si>
+    <t>ステージクリアで強化</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>クリア</t>
+    <t>スイッチを押すと出現するブロック</t>
+  </si>
+  <si>
+    <t>ギミックブロック</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ステージセレクト</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>サウンド</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>ため攻撃で前方に一定距離飛ばせる(敵を貫通)</t>
-  </si>
-  <si>
-    <t>ダッシュ(一定距離をすばやく移動)</t>
-  </si>
-  <si>
-    <t>アイテム</t>
-  </si>
-  <si>
-    <t>主人公の属性を切り替える</t>
-  </si>
-  <si>
-    <t>ステージクリアで強化</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>スイッチを押すと出現するブロック</t>
-  </si>
-  <si>
-    <t>ギミックブロック</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>消滅するギミックブロック</t>
     <rPh sb="0" eb="2">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>看板とチュートリアル</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>左に対応するスイッチ</t>
@@ -1450,7 +1450,7 @@
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>左に対応するスイッチ</t>
@@ -1460,7 +1460,7 @@
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>一定期間で消滅と再出現を繰り返すブロック</t>
@@ -1476,15 +1476,15 @@
     <rPh sb="14" eb="15">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵を一定数取るとゲート開放するブロック</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界でしか見えないブロック</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>下記のゲートを解放するためのアイテム</t>
@@ -1494,24 +1494,24 @@
     <rPh sb="7" eb="9">
       <t>カイホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界でしか見えない</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界
 でしか
 見えない</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>(仮)</t>
     <rPh sb="1" eb="2">
       <t>カリ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>影の世界でしか見えないブロック
@@ -1549,21 +1549,21 @@
     <rPh sb="44" eb="45">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消滅するギミックブロック</t>
     <rPh sb="0" eb="2">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>出現するギミックブロック</t>
     <rPh sb="0" eb="2">
       <t>シュツゲン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消滅するギミックブロック
@@ -1587,7 +1587,7 @@
     <rPh sb="39" eb="40">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>消滅するギミックブロックに対応するスイッチ</t>
@@ -1597,7 +1597,7 @@
     <rPh sb="13" eb="15">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>出現するギミックブロック
@@ -1633,7 +1633,7 @@
     <rPh sb="50" eb="52">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -1650,7 +1650,7 @@
       </rPr>
       <t>ot image</t>
     </r>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>出現するギミックブロックに対応するスイッチ</t>
@@ -1660,7 +1660,7 @@
     <rPh sb="13" eb="15">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>出現するギミックブロックに対応するスイッチ
@@ -1699,7 +1699,7 @@
     <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>消滅するギミックブロックに対応するスイッチ
@@ -1726,11 +1726,11 @@
     <rPh sb="49" eb="51">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>鍵を一定数取るとゲート開放</t>
     <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>鍵を一定数取るとゲート開放</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>鍵を一定数取り、触れると消えるブロック</t>
@@ -1740,7 +1740,7 @@
     <rPh sb="12" eb="13">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <r>
@@ -1757,11 +1757,11 @@
       </rPr>
       <t>ot image</t>
     </r>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵となるアイテム</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>一定間隔で出現と消滅を繰り返すブロック</t>
@@ -1783,7 +1783,7 @@
     <rPh sb="13" eb="14">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>一定間隔で出現と消滅を繰り返すブロック
@@ -1821,7 +1821,7 @@
     <rPh sb="30" eb="32">
       <t>テンメツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵になるアイテム
@@ -1848,7 +1848,7 @@
     <rPh sb="40" eb="42">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵を一定数取り、触れると消えるブロック
@@ -1878,19 +1878,27 @@
     <rPh sb="55" eb="56">
       <t>ケ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2545,10 +2553,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2581,47 +2589,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2630,65 +2638,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2697,213 +2705,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2912,14 +2920,35 @@
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="52">
     <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2934,23 +2963,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9900"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2959,8 +3001,22 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3070,201 +3126,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4914,7 +4775,7 @@
       <c r="K10" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4924,8 +4785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39:T42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4934,69 +4795,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="L3" s="92" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="L3" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="108"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="111"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="100"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="114"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L8" s="92" t="s">
+      <c r="L8" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="F9" s="92" t="s">
+      <c r="D9" s="118"/>
+      <c r="F9" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="55"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
       <c r="S9" s="66"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
@@ -5007,90 +4868,90 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="105"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="55"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="100"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="114"/>
       <c r="R10" s="73" t="s">
         <v>281</v>
       </c>
       <c r="S10" s="69"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="92" t="s">
+      <c r="U10" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="94"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="108"/>
       <c r="Z10" s="70"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="55"/>
       <c r="S11" s="69"/>
-      <c r="T11" s="124" t="s">
+      <c r="T11" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="U11" s="95"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="97"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="111"/>
       <c r="Z11" s="70"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="55"/>
       <c r="S12" s="69"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="97"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="111"/>
       <c r="Z12" s="70"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="S13" s="69"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="100"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="114"/>
       <c r="Z13" s="70"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H14" s="114" t="s">
+      <c r="H14" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="115"/>
-      <c r="K14" s="92" t="s">
+      <c r="I14" s="120"/>
+      <c r="K14" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="102"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
       <c r="S14" s="71"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
@@ -5103,401 +4964,423 @@
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="105"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="103"/>
     </row>
     <row r="19" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="M19" s="91" t="s">
+      <c r="M19" s="94" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C20" s="91"/>
-      <c r="E20" s="113" t="s">
+      <c r="C20" s="94"/>
+      <c r="E20" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="102"/>
-      <c r="M20" s="91"/>
-      <c r="O20" s="122" t="s">
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="97"/>
+      <c r="M20" s="94"/>
+      <c r="O20" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="102"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="97"/>
     </row>
     <row r="21" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="91"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="105"/>
-      <c r="M21" s="91"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="105"/>
+      <c r="C21" s="94"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="100"/>
+      <c r="M21" s="94"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="100"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C22" s="91"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
-      <c r="M22" s="91"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="105"/>
+      <c r="C22" s="94"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="M22" s="94"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="100"/>
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="E23" s="106"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
-      <c r="M23" s="91"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="108"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="103"/>
+      <c r="M23" s="94"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="103"/>
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="M24" s="91"/>
+      <c r="M24" s="94"/>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="132" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C29" s="79"/>
+      <c r="C29" s="125"/>
     </row>
     <row r="30" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C30" s="79"/>
-      <c r="E30" s="80" t="s">
+      <c r="C30" s="125"/>
+      <c r="E30" s="126" t="s">
         <v>282</v>
       </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="82"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C31" s="79"/>
-      <c r="D31" s="124" t="s">
+      <c r="C31" s="125"/>
+      <c r="D31" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C32" s="79"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C33" s="79"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="88"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="127" t="s">
         <v>284</v>
       </c>
-      <c r="M37" s="127" t="s">
+      <c r="M37" s="104" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C38" s="90"/>
-      <c r="M38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="M38" s="105"/>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C39" s="90"/>
-      <c r="E39" s="123" t="s">
+      <c r="C39" s="128"/>
+      <c r="E39" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="82"/>
-      <c r="M39" s="128"/>
-      <c r="O39" s="123" t="s">
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
+      <c r="M39" s="105"/>
+      <c r="O39" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="82"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="80"/>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C40" s="90"/>
-      <c r="D40" s="124" t="s">
+      <c r="C40" s="128"/>
+      <c r="D40" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="85"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="124" t="s">
+      <c r="E40" s="81"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="83"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="O40" s="83"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="S40" s="84"/>
-      <c r="T40" s="85"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="83"/>
     </row>
     <row r="41" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C41" s="90"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="85"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="83"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="83"/>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C42" s="90"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="88"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="88"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="86"/>
     </row>
     <row r="46" spans="3:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="M46" s="130" t="s">
+      <c r="M46" s="92" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C47" s="129"/>
-      <c r="M47" s="129"/>
+      <c r="C47" s="93"/>
+      <c r="M47" s="93"/>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C48" s="129"/>
-      <c r="M48" s="129"/>
+      <c r="C48" s="93"/>
+      <c r="M48" s="93"/>
     </row>
     <row r="49" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C49" s="129"/>
-      <c r="E49" s="123" t="s">
+      <c r="C49" s="93"/>
+      <c r="E49" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="82"/>
-      <c r="M49" s="129"/>
-      <c r="O49" s="123" t="s">
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="80"/>
+      <c r="M49" s="93"/>
+      <c r="O49" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="82"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="79"/>
+      <c r="R49" s="79"/>
+      <c r="S49" s="79"/>
+      <c r="T49" s="80"/>
     </row>
     <row r="50" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C50" s="129"/>
-      <c r="D50" s="124" t="s">
+      <c r="C50" s="93"/>
+      <c r="D50" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="E50" s="83"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="85"/>
-      <c r="M50" s="129"/>
-      <c r="N50" s="124" t="s">
+      <c r="E50" s="81"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="83"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="O50" s="83"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="85"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="83"/>
     </row>
     <row r="51" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C51" s="129"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="85"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="85"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="83"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="83"/>
     </row>
     <row r="52" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C52" s="129"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="88"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="87"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="88"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="86"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="86"/>
     </row>
     <row r="56" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="90" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="57" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C57" s="132"/>
+      <c r="C57" s="91"/>
     </row>
     <row r="58" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C58" s="132"/>
-      <c r="E58" s="123" t="s">
+      <c r="C58" s="91"/>
+      <c r="E58" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="82"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="80"/>
     </row>
     <row r="59" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C59" s="132"/>
-      <c r="D59" s="124" t="s">
+      <c r="C59" s="91"/>
+      <c r="D59" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="85"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="I59" s="82"/>
+      <c r="J59" s="83"/>
     </row>
     <row r="60" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C60" s="132"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="85"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="83"/>
     </row>
     <row r="61" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C61" s="132"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="88"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="E30:J33"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="E39:J42"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E20:K23"/>
+    <mergeCell ref="L3:O5"/>
+    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="K14:P16"/>
+    <mergeCell ref="U10:Y13"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="M19:M24"/>
+    <mergeCell ref="O20:U23"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="O39:T42"/>
+    <mergeCell ref="N40:N42"/>
+    <mergeCell ref="D31:D33"/>
     <mergeCell ref="O49:T52"/>
     <mergeCell ref="N50:N52"/>
     <mergeCell ref="C56:C61"/>
@@ -5507,67 +5390,45 @@
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="E49:J52"/>
     <mergeCell ref="M46:M52"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="O20:U23"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="O39:T42"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="L3:O5"/>
-    <mergeCell ref="L8:O10"/>
-    <mergeCell ref="K14:P16"/>
-    <mergeCell ref="U10:Y13"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F9:H12"/>
-    <mergeCell ref="H14:I16"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="E30:J33"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="E39:J42"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E20:K23"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5683,7 +5544,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5772,7 +5633,7 @@
       <c r="E7" s="43"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5793,11 +5654,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -5856,7 +5717,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5991,7 +5852,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6014,11 +5875,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -6065,7 +5926,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6187,7 +6048,7 @@
       <c r="D13" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6256,7 +6117,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6376,7 +6237,7 @@
       <c r="H9" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7064,19 +6925,19 @@
       <c r="H49" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7146,7 +7007,7 @@
       <c r="D4" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7886,9 +7747,9 @@
       <c r="G62" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9068,12 +8929,12 @@
       <c r="G71" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="D60:XFD61 A68:XFD68 A71:XFD1048576 A60:A62 B69:XFD69 C70:XFD70 B61:B62 A64:A67 A1:XFD59 D65:XFD67 D62:I64 K62:XFD64 J62:J63">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"×"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9196,7 +9057,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12648,55 +12509,55 @@
     <mergeCell ref="AS6:AS14"/>
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="AY30:CV30 AY24:BD24 BF24:BJ24 BE23:BE24 A21:AX30 AY25:BJ29 BL24:CV29">
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY21:CV21 AY23:BD23 BF23:BJ23 AY22:BJ22 BL22:CV23 BK22:BK29">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE23">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12710,8 +12571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="BI8" sqref="BI8:BI12"/>
+    <sheetView topLeftCell="AB1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="BF25" sqref="BF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15766,67 +15627,67 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="CP7:CV11 A4:CO11 A12:CV13">
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP4:CV6">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:CV13">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="301">
   <si>
     <t>ゲームの大まかな概要</t>
   </si>
@@ -526,23 +526,6 @@
   <si>
     <t>床
 ここに立つ</t>
-  </si>
-  <si>
-    <t>敵キャラ(仮）
-当たるとミスになり、チェックポイントに戻される。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ヒビ
@@ -1429,17 +1412,6 @@
   </si>
   <si>
     <t>ギミックブロック</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>消滅するギミックブロック</t>
-    <rPh sb="0" eb="2">
-      <t>ショウメツ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>看板とチュートリアル</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
@@ -1861,23 +1833,90 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>6に対応するスイッチ</t>
+    <t>5に対応するスイッチ</t>
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>8に対応するスイッチ</t>
+    <t>スイッチを押すと出現するブロック
+もう一回スイッチを押すと再び消滅</t>
+    <rPh sb="19" eb="21">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>７に対応する、鍵となるアイテム</t>
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
     </rPh>
+    <rPh sb="7" eb="8">
+      <t>カギ</t>
+    </rPh>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>10に対応するスイッチ</t>
-    <rPh sb="3" eb="5">
-      <t>タイオウ</t>
+    <t>没</t>
+    <rPh sb="0" eb="1">
+      <t>ボツ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>敵キャラ
+当たるとミスになり、チェックポイントに戻される。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>（前回との変更点）
+看板をブロック番号で表示しなくなったため、省きました。
+ブロック番号、種類を0～9となるように調整しました。</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンバン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハブ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="14"/>
   </si>
@@ -1886,7 +1925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2084,6 +2123,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2165,7 +2212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -2551,6 +2598,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2561,7 +2621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2742,6 +2802,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2754,7 +2816,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2781,31 +2849,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2831,12 +2887,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2865,12 +2915,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2895,38 +2939,91 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="68">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3184,6 +3281,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
@@ -3345,6 +3452,129 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4050,7 +4280,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6162675" y="1590675"/>
+          <a:off x="6119132" y="1631496"/>
           <a:ext cx="1268929" cy="878404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4072,7 +4302,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -4106,7 +4336,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6353175" y="3124200"/>
+          <a:off x="6304189" y="3212646"/>
           <a:ext cx="361294" cy="651248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4128,15 +4358,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>35378</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>35377</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>157842</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4216,13 +4446,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>664028</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>78921</xdr:rowOff>
@@ -4789,81 +5019,99 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39:T42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="47"/>
+    <col min="1" max="16" width="9" style="47"/>
+    <col min="17" max="17" width="9" style="148"/>
+    <col min="18" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="A1" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="L3" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="108"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="L3" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="106"/>
+      <c r="R3" s="143" t="s">
+        <v>298</v>
+      </c>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L4" s="109"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="111"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="109"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="114"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="112"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="R6" s="144"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L8" s="106" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
+      <c r="L8" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="F9" s="106" t="s">
-        <v>132</v>
+      <c r="D9" s="114"/>
+      <c r="F9" s="145" t="s">
+        <v>299</v>
       </c>
       <c r="G9" s="96"/>
       <c r="H9" s="97"/>
       <c r="I9" s="55"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="111"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="109"/>
       <c r="S9" s="66"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
@@ -4874,90 +5122,90 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="55"/>
       <c r="F10" s="98"/>
       <c r="G10" s="99"/>
       <c r="H10" s="100"/>
       <c r="I10" s="55"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="114"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="112"/>
       <c r="R10" s="73" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S10" s="69"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="106" t="s">
+      <c r="U10" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="108"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="106"/>
       <c r="Z10" s="70"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="55"/>
       <c r="F11" s="98"/>
       <c r="G11" s="99"/>
       <c r="H11" s="100"/>
       <c r="I11" s="55"/>
       <c r="S11" s="69"/>
-      <c r="T11" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="111"/>
+      <c r="T11" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="109"/>
       <c r="Z11" s="70"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="55"/>
       <c r="F12" s="101"/>
       <c r="G12" s="102"/>
       <c r="H12" s="103"/>
       <c r="I12" s="55"/>
       <c r="S12" s="69"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="111"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="109"/>
       <c r="Z12" s="70"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="S13" s="69"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="114"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="112"/>
       <c r="Z13" s="70"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H14" s="119" t="s">
+      <c r="F14" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="K14" s="106" t="s">
+      <c r="G14" s="116"/>
+      <c r="J14" s="104" t="s">
         <v>130</v>
       </c>
+      <c r="K14" s="96"/>
       <c r="L14" s="96"/>
       <c r="M14" s="96"/>
       <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="97"/>
+      <c r="O14" s="97"/>
       <c r="S14" s="71"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
@@ -4968,41 +5216,55 @@
       <c r="Z14" s="72"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="K15" s="98"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="99"/>
       <c r="M15" s="99"/>
       <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="100"/>
+      <c r="O15" s="100"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="124"/>
-      <c r="K16" s="101"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
       <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="103"/>
-    </row>
-    <row r="19" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O16" s="103"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="S17" s="80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="S18" s="81"/>
+    </row>
+    <row r="19" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="94" t="s">
-        <v>281</v>
-      </c>
-      <c r="M19" s="94" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+      <c r="S19" s="81"/>
+      <c r="U19" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="84"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C20" s="94"/>
-      <c r="E20" s="130" t="s">
-        <v>283</v>
+      <c r="E20" s="95" t="s">
+        <v>280</v>
       </c>
       <c r="F20" s="96"/>
       <c r="G20" s="96"/>
@@ -5010,18 +5272,18 @@
       <c r="I20" s="96"/>
       <c r="J20" s="96"/>
       <c r="K20" s="97"/>
-      <c r="M20" s="94"/>
-      <c r="O20" s="95" t="s">
-        <v>289</v>
-      </c>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="97"/>
-    </row>
-    <row r="21" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S20" s="81"/>
+      <c r="T20" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="U20" s="85"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="87"/>
+    </row>
+    <row r="21" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="94"/>
       <c r="E21" s="98"/>
       <c r="F21" s="99"/>
@@ -5030,16 +5292,16 @@
       <c r="I21" s="99"/>
       <c r="J21" s="99"/>
       <c r="K21" s="100"/>
-      <c r="M21" s="94"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="100"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="S21" s="81"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="87"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C22" s="94"/>
       <c r="E22" s="98"/>
       <c r="F22" s="99"/>
@@ -5048,16 +5310,16 @@
       <c r="I22" s="99"/>
       <c r="J22" s="99"/>
       <c r="K22" s="100"/>
-      <c r="M22" s="94"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="100"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.4">
+      <c r="S22" s="81"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="90"/>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.4">
       <c r="E23" s="101"/>
       <c r="F23" s="102"/>
       <c r="G23" s="102"/>
@@ -5065,340 +5327,345 @@
       <c r="I23" s="102"/>
       <c r="J23" s="102"/>
       <c r="K23" s="103"/>
-      <c r="M23" s="94"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="103"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="M24" s="94"/>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C28" s="125" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C29" s="126"/>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C30" s="126"/>
-      <c r="E30" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80"/>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C31" s="126"/>
-      <c r="D31" s="87" t="s">
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="S24" s="127" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C25" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="S25" s="128"/>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C26" s="94"/>
+      <c r="E26" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.4">
-      <c r="C32" s="126"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C33" s="126"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="86"/>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C37" s="128" t="s">
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="97"/>
+      <c r="S26" s="128"/>
+      <c r="U26" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="84"/>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C27" s="94"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="100"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="U27" s="85"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="87"/>
+    </row>
+    <row r="28" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="94"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="87"/>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C29" s="94"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="103"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="90"/>
+    </row>
+    <row r="30" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="94"/>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C32" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C33" s="92"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C34" s="92"/>
+      <c r="E34" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="M37" s="104" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C38" s="129"/>
-      <c r="M38" s="105"/>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C39" s="129"/>
-      <c r="E39" s="78" t="s">
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="84"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C35" s="92"/>
+      <c r="D35" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C36" s="92"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C37" s="92"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C39" s="125" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C40" s="126"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C41" s="126"/>
+      <c r="E41" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="80"/>
-      <c r="M39" s="105"/>
-      <c r="O39" s="78" t="s">
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="84"/>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C42" s="126"/>
+      <c r="D42" s="121" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="87"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C43" s="126"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C44" s="126"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="90"/>
+    </row>
+    <row r="46" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="129" t="s">
         <v>288</v>
       </c>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="80"/>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C40" s="129"/>
-      <c r="D40" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="83"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="O40" s="81"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="83"/>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C41" s="129"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="83"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="83"/>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C42" s="129"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="86"/>
-    </row>
-    <row r="46" spans="3:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="M46" s="92" t="s">
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C47" s="130"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C48" s="130"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C49" s="130"/>
+      <c r="E49" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="84"/>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C50" s="130"/>
+      <c r="D50" s="121" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" s="85"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="87"/>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C51" s="130"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="87"/>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C52" s="130"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="90"/>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C54" s="129" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C55" s="130"/>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C56" s="130"/>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C57" s="130"/>
+      <c r="E57" s="93" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C47" s="93"/>
-      <c r="M47" s="93"/>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C48" s="93"/>
-      <c r="M48" s="93"/>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C49" s="93"/>
-      <c r="E49" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="80"/>
-      <c r="M49" s="93"/>
-      <c r="O49" s="78" t="s">
-        <v>296</v>
-      </c>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="79"/>
-      <c r="R49" s="79"/>
-      <c r="S49" s="79"/>
-      <c r="T49" s="80"/>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C50" s="93"/>
-      <c r="D50" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="E50" s="81"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="83"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="O50" s="81"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="83"/>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C51" s="93"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="83"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="83"/>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C52" s="93"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="86"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="86"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C56" s="90" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C57" s="91"/>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C58" s="91"/>
-      <c r="E58" s="78" t="s">
-        <v>295</v>
-      </c>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="80"/>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C59" s="91"/>
-      <c r="D59" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="E59" s="81"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="83"/>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C60" s="91"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="83"/>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C61" s="91"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="86"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="84"/>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C58" s="130"/>
+      <c r="D58" s="121" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" s="85"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="86"/>
+      <c r="J58" s="87"/>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C59" s="130"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="87"/>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C60" s="130"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="E30:J33"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="E39:J42"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E20:K23"/>
+  <mergeCells count="32">
+    <mergeCell ref="E57:J60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="S24:S29"/>
+    <mergeCell ref="U26:Z29"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E49:J52"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="E26:K29"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="E41:J44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="T20:T22"/>
     <mergeCell ref="L3:O5"/>
     <mergeCell ref="L8:O10"/>
-    <mergeCell ref="K14:P16"/>
+    <mergeCell ref="J14:O16"/>
     <mergeCell ref="U10:Y13"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="C9:D12"/>
     <mergeCell ref="F9:H12"/>
-    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="F14:G16"/>
     <mergeCell ref="T11:T13"/>
-    <mergeCell ref="M19:M24"/>
-    <mergeCell ref="O20:U23"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="O39:T42"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="O49:T52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="E58:J61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E49:J52"/>
-    <mergeCell ref="M46:M52"/>
+    <mergeCell ref="R3:T6"/>
+    <mergeCell ref="S17:S22"/>
+    <mergeCell ref="U19:Z22"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="E34:J37"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E20:K23"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="S17">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -5418,7 +5685,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="S17">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>11</formula>
     </cfRule>
@@ -5649,7 +5916,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5733,7 +6000,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5743,73 +6010,73 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C3" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C4" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C9" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C10" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C11" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C12" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C13" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -5819,42 +6086,42 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C15" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C16" s="61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C17" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C18" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C20" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C21" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C22" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5949,7 +6216,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -5958,10 +6225,10 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -5969,7 +6236,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -5977,7 +6244,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -5985,14 +6252,14 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6001,7 +6268,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -6009,7 +6276,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -6017,7 +6284,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -6025,7 +6292,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -6033,7 +6300,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -6041,7 +6308,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -6049,7 +6316,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -6074,52 +6341,52 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
         <v>266</v>
-      </c>
-      <c r="B4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="63"/>
       <c r="B9" s="63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6198,7 +6465,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6276,7 +6543,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="20" t="s">
@@ -6290,7 +6557,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="20" t="s">
@@ -6316,7 +6583,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -6330,7 +6597,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -6344,7 +6611,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -6370,7 +6637,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -6384,7 +6651,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -6398,7 +6665,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -6412,7 +6679,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -6426,7 +6693,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -6440,7 +6707,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -6454,7 +6721,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="20" t="s">
@@ -6468,7 +6735,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -6482,7 +6749,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -6508,7 +6775,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -6522,7 +6789,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -6536,7 +6803,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6550,7 +6817,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -6564,7 +6831,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6578,7 +6845,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6592,7 +6859,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6606,7 +6873,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -6620,7 +6887,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -6634,7 +6901,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -6648,7 +6915,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -6662,7 +6929,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6702,7 +6969,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -6716,7 +6983,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -6730,7 +6997,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -6744,7 +7011,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -6758,7 +7025,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -6772,7 +7039,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -6786,7 +7053,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -6800,7 +7067,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -6838,7 +7105,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -6852,7 +7119,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -6878,7 +7145,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -6892,7 +7159,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -6906,7 +7173,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -6933,17 +7200,17 @@
   </sheetData>
   <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6983,13 +7250,13 @@
         <v>74</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>166</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6998,10 +7265,10 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7030,7 +7297,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7052,7 +7319,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20" t="s">
@@ -7065,7 +7332,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20" t="s">
@@ -7078,7 +7345,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
@@ -7102,7 +7369,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20" t="s">
@@ -7115,7 +7382,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -7128,11 +7395,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -7152,7 +7419,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
@@ -7165,7 +7432,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20" t="s">
@@ -7187,7 +7454,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -7209,7 +7476,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
@@ -7222,7 +7489,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
@@ -7244,7 +7511,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -7266,11 +7533,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -7279,7 +7546,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
@@ -7292,7 +7559,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20" t="s">
@@ -7314,7 +7581,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -7336,11 +7603,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -7349,7 +7616,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20" t="s">
@@ -7362,7 +7629,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20" t="s">
@@ -7375,11 +7642,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -7441,7 +7708,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -7463,7 +7730,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
@@ -7476,7 +7743,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
@@ -7489,7 +7756,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="s">
@@ -7511,7 +7778,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -7533,7 +7800,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20" t="s">
@@ -7546,7 +7813,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20" t="s">
@@ -7570,7 +7837,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20" t="s">
@@ -7625,7 +7892,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -7636,7 +7903,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>92</v>
@@ -7649,7 +7916,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>93</v>
@@ -7662,7 +7929,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>94</v>
@@ -7675,7 +7942,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>95</v>
@@ -7688,7 +7955,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>96</v>
@@ -7701,7 +7968,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>97</v>
@@ -7723,7 +7990,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -7755,7 +8022,7 @@
   </sheetData>
   <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7776,7 +8043,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -7796,14 +8063,14 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="I2" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20" t="s">
@@ -7814,7 +8081,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>92</v>
@@ -7823,7 +8090,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20" t="s">
@@ -7834,7 +8101,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="I4" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>93</v>
@@ -7843,7 +8110,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
@@ -7854,7 +8121,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="I5" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>94</v>
@@ -7863,18 +8130,18 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="I6" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>95</v>
@@ -7883,18 +8150,18 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="I7" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>96</v>
@@ -7912,7 +8179,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="I8" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>97</v>
@@ -7921,7 +8188,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20" t="s">
@@ -7934,7 +8201,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
@@ -7945,25 +8212,25 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="I10" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="I11" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>92</v>
@@ -7981,7 +8248,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="I12" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>93</v>
@@ -7990,7 +8257,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20" t="s">
@@ -8001,7 +8268,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>94</v>
@@ -8010,7 +8277,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
@@ -8021,7 +8288,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="I14" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>95</v>
@@ -8030,18 +8297,18 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="I15" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>96</v>
@@ -8057,7 +8324,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>97</v>
@@ -8066,7 +8333,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -8086,14 +8353,14 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20" t="s">
@@ -8104,7 +8371,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="I19" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>92</v>
@@ -8113,7 +8380,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20" t="s">
@@ -8124,7 +8391,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>93</v>
@@ -8133,18 +8400,18 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="I21" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>94</v>
@@ -8153,18 +8420,18 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="I22" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>95</v>
@@ -8180,7 +8447,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="I23" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>96</v>
@@ -8189,7 +8456,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -8198,7 +8465,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="I24" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>97</v>
@@ -8218,25 +8485,25 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="I26" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
@@ -8247,7 +8514,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="I27" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>92</v>
@@ -8256,7 +8523,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20" t="s">
@@ -8267,7 +8534,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="I28" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>93</v>
@@ -8283,7 +8550,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="I29" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J29" s="20" t="s">
         <v>94</v>
@@ -8292,7 +8559,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -8301,7 +8568,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="I30" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>95</v>
@@ -8319,7 +8586,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="I31" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>96</v>
@@ -8328,18 +8595,18 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="I32" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>97</v>
@@ -8348,7 +8615,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20" t="s">
@@ -8361,7 +8628,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20" t="s">
@@ -8372,25 +8639,25 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="I34" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="I35" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>92</v>
@@ -8399,18 +8666,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="I36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>93</v>
@@ -8428,7 +8695,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="I37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>94</v>
@@ -8437,7 +8704,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="s">
@@ -8448,7 +8715,7 @@
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="I38" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>95</v>
@@ -8457,7 +8724,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>54</v>
@@ -8468,7 +8735,7 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="I39" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J39" s="20" t="s">
         <v>96</v>
@@ -8486,7 +8753,7 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="I40" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>97</v>
@@ -8504,7 +8771,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -8513,7 +8780,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="I42" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J42" s="20"/>
     </row>
@@ -8528,7 +8795,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="I43" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J43" s="20" t="s">
         <v>92</v>
@@ -8536,7 +8803,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20" t="s">
@@ -8547,7 +8814,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="I44" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J44" s="20" t="s">
         <v>93</v>
@@ -8555,7 +8822,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20" t="s">
@@ -8566,7 +8833,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="I45" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J45" s="20" t="s">
         <v>94</v>
@@ -8574,7 +8841,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20" t="s">
@@ -8585,7 +8852,7 @@
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="I46" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>95</v>
@@ -8593,18 +8860,18 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="I47" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>96</v>
@@ -8619,7 +8886,7 @@
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="I48" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>97</v>
@@ -8627,7 +8894,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -8647,12 +8914,12 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="I50" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20" t="s">
@@ -8663,15 +8930,15 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="I51" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20" t="s">
@@ -8682,10 +8949,10 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="I52" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
@@ -8699,15 +8966,15 @@
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="I53" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20" t="s">
@@ -8720,7 +8987,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20" t="s">
@@ -8731,26 +8998,26 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="I55" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="I56" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
@@ -8764,29 +9031,29 @@
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="I57" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="I58" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
@@ -8798,15 +9065,15 @@
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="I59" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -8815,7 +9082,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>98</v>
@@ -8825,23 +9092,23 @@
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="I61" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="I62" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
@@ -8850,15 +9117,15 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="I63" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -8867,10 +9134,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -8879,10 +9146,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -8891,10 +9158,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
@@ -8937,10 +9204,10 @@
   </sheetData>
   <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="D60:XFD61 A68:XFD68 A71:XFD1048576 A60:A62 B69:XFD69 C70:XFD70 B61:B62 A64:A67 A1:XFD59 D65:XFD67 D62:I64 K62:XFD64 J62:J63">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"×"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8951,142 +9218,196 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:J25"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="133">
-        <v>1</v>
-      </c>
-      <c r="B2" s="135" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="74">
+        <v>1</v>
+      </c>
+      <c r="C2" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="135"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="133">
+      <c r="D2" s="74"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="133" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="133"/>
+      <c r="C3" s="134" t="s">
+        <v>102</v>
+      </c>
       <c r="D3" s="133"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="133">
+      <c r="E3" s="133"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="74">
         <v>3</v>
       </c>
-      <c r="B4" s="136" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="133">
+      <c r="C4" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="75"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="75">
         <v>4</v>
       </c>
-      <c r="B5" s="135" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="135"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="133">
+      <c r="C5" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="75">
         <v>5</v>
       </c>
-      <c r="B6" s="133" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="133">
+      <c r="C6" s="137" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="136">
         <v>6</v>
       </c>
-      <c r="B7" s="133" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="F7" s="133">
+      <c r="H6" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="134"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="142"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="74">
         <v>7</v>
       </c>
-      <c r="G7" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="133">
+      <c r="C8" s="135" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="G8" s="74">
         <v>8</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="F8" s="133">
-        <v>9</v>
-      </c>
-      <c r="G8" s="133" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="133">
-        <v>10</v>
-      </c>
-      <c r="B9" s="134" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133">
-        <v>11</v>
-      </c>
-      <c r="G9" s="133" t="s">
+      <c r="H8" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="136"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="74">
+        <v>0</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="74"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="146" t="s">
         <v>300</v>
       </c>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="133">
-        <v>12</v>
-      </c>
-      <c r="B10" s="133" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="133">
-        <v>0</v>
-      </c>
-      <c r="B11" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="133"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="B14:I16"/>
+  </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9097,7 +9418,7 @@
   <dimension ref="A1:CV30"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+      <selection activeCell="O36" sqref="A34:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9106,54 +9427,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS6" s="74" t="s">
+      <c r="AS6" s="76" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS7" s="75"/>
+      <c r="AS7" s="77"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS8" s="75"/>
+      <c r="AS8" s="77"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS9" s="75"/>
+      <c r="AS9" s="77"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS10" s="75"/>
+      <c r="AS10" s="77"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS11" s="75"/>
+      <c r="AS11" s="77"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.4">
       <c r="N12" s="51"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
       <c r="V12" s="49"/>
-      <c r="AS12" s="75"/>
+      <c r="AS12" s="77"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C13" s="53"/>
@@ -9161,7 +9482,7 @@
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
       <c r="V13" s="49"/>
-      <c r="AS13" s="75"/>
+      <c r="AS13" s="77"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C14" s="52"/>
@@ -9172,7 +9493,7 @@
       <c r="X14" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="AS14" s="75"/>
+      <c r="AS14" s="77"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A15" s="48"/>
@@ -9702,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL21" s="58">
         <v>0</v>
@@ -10004,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL22" s="58">
         <v>0</v>
@@ -10288,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="BE23" s="58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BF23" s="58">
         <v>0</v>
@@ -10306,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL23" s="58">
         <v>0</v>
@@ -10608,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL24" s="58">
         <v>0</v>
@@ -10910,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL25" s="58">
         <v>0</v>
@@ -11212,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL26" s="58">
         <v>0</v>
@@ -11514,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL27" s="58">
         <v>0</v>
@@ -11816,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL28" s="58">
         <v>0</v>
@@ -11915,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="CR28" s="58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CS28" s="58">
         <v>0</v>
@@ -11956,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="58">
         <v>0</v>
@@ -12010,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="58">
         <v>0</v>
@@ -12028,7 +12349,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH29" s="58">
         <v>0</v>
@@ -12091,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="BB29" s="58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="58">
         <v>0</v>
@@ -12118,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL29" s="58">
         <v>0</v>
@@ -12175,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="CD29" s="58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CE29" s="58">
         <v>0</v>
@@ -12541,54 +12862,59 @@
   </mergeCells>
   <phoneticPr fontId="14"/>
   <conditionalFormatting sqref="AY30:CV30 AY24:BD24 BF24:BJ24 BE23:BE24 A21:AX30 AY25:BJ29 BL24:CV29">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY21:CV21 AY23:BD23 BF23:BJ23 AY22:BJ22 BL22:CV23 BK22:BK29">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE23">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12601,8 +12927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="W15" sqref="G15:W15"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12801,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM1" s="58">
         <v>0</v>
@@ -12843,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="BZ1" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA1" s="58">
         <v>0</v>
@@ -13001,22 +13327,22 @@
         <v>0</v>
       </c>
       <c r="AD2" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="58">
         <v>0</v>
@@ -13103,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="58">
         <v>0</v>
@@ -13145,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="BZ2" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA2" s="58">
         <v>0</v>
@@ -13252,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N3" s="58">
         <v>0</v>
@@ -13303,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="58">
         <v>0</v>
@@ -13318,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="58">
         <v>0</v>
@@ -13327,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="58">
         <v>0</v>
@@ -13336,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="58">
         <v>0</v>
@@ -13402,40 +13728,40 @@
         <v>0</v>
       </c>
       <c r="BK3" s="58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BU3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BV3" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW3" s="58">
         <v>0</v>
@@ -13447,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA3" s="58">
         <v>0</v>
@@ -13548,19 +13874,19 @@
         <v>0</v>
       </c>
       <c r="K4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="58">
         <v>0</v>
@@ -13605,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="58">
         <v>0</v>
@@ -13614,13 +13940,13 @@
         <v>0</v>
       </c>
       <c r="AG4" s="58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="58">
         <v>0</v>
       </c>
       <c r="AI4" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="58">
         <v>0</v>
@@ -13629,22 +13955,22 @@
         <v>0</v>
       </c>
       <c r="AL4" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="58">
         <v>0</v>
       </c>
       <c r="AN4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="58">
         <v>0</v>
@@ -13704,10 +14030,10 @@
         <v>0</v>
       </c>
       <c r="BK4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4" s="58">
         <v>0</v>
@@ -13737,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="BV4" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="58">
         <v>0</v>
@@ -13749,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA4" s="58">
         <v>0</v>
@@ -13767,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="CF4" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CG4" s="58">
         <v>0</v>
@@ -13907,22 +14233,22 @@
         <v>0</v>
       </c>
       <c r="AD5" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="58">
         <v>0</v>
@@ -13931,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="58">
         <v>0</v>
@@ -14009,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="58">
         <v>0</v>
@@ -14036,10 +14362,10 @@
         <v>0</v>
       </c>
       <c r="BU5" s="58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW5" s="58">
         <v>0</v>
@@ -14048,10 +14374,10 @@
         <v>0</v>
       </c>
       <c r="BY5" s="58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BZ5" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA5" s="58">
         <v>0</v>
@@ -14069,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="CF5" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CG5" s="58">
         <v>0</v>
@@ -14233,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="58">
         <v>0</v>
@@ -14311,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="58">
         <v>0</v>
@@ -14332,28 +14658,28 @@
         <v>0</v>
       </c>
       <c r="BS6" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA6" s="58">
         <v>0</v>
@@ -14371,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="CF6" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CG6" s="58">
         <v>0</v>
@@ -14535,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="58">
         <v>0</v>
@@ -14613,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="58">
         <v>0</v>
@@ -14643,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="BV7" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="58">
         <v>0</v>
@@ -14655,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="BZ7" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA7" s="58">
         <v>0</v>
@@ -14673,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="CF7" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CG7" s="58">
         <v>0</v>
@@ -14837,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="58">
         <v>0</v>
@@ -14915,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM8" s="58">
         <v>0</v>
@@ -14945,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="BV8" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW8" s="58">
         <v>0</v>
@@ -14957,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="BZ8" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA8" s="58">
         <v>0</v>
@@ -14975,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="CF8" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CG8" s="58">
         <v>0</v>
@@ -15011,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CS8" s="58">
         <v>0</v>
@@ -15094,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X9" s="58">
         <v>0</v>
@@ -15139,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="58">
         <v>0</v>
@@ -15199,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="58">
         <v>0</v>
@@ -15217,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="58">
         <v>0</v>
@@ -15247,7 +15573,7 @@
         <v>0</v>
       </c>
       <c r="BV9" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW9" s="58">
         <v>0</v>
@@ -15259,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="BZ9" s="58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA9" s="58">
         <v>0</v>
@@ -15271,13 +15597,13 @@
         <v>0</v>
       </c>
       <c r="CD9" s="58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CE9" s="58">
         <v>0</v>
       </c>
       <c r="CF9" s="58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CG9" s="58">
         <v>0</v>
@@ -15372,13 +15698,13 @@
         <v>1</v>
       </c>
       <c r="O10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R10" s="58">
         <v>1</v>
@@ -15462,25 +15788,25 @@
         <v>1</v>
       </c>
       <c r="AS10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="58">
         <v>1</v>
@@ -15528,13 +15854,13 @@
         <v>1</v>
       </c>
       <c r="BO10" s="58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="58">
         <v>1</v>
@@ -15632,7 +15958,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="14"/>
-  <conditionalFormatting sqref="A5:AN9 A3:AQ4 AO5:AQ5 A10:CV10 BM5:BM9 CA1:CO3 AR3:BT5 AO6:BT9 A1:BZ2 BU3:BZ9 CA4:CV9">
+  <conditionalFormatting sqref="CA4:CV9 A1:CU9 A10:CV10">
     <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>6</formula>
     </cfRule>

--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="304">
   <si>
     <t>ゲームの大まかな概要</t>
   </si>
@@ -88,7 +88,7 @@
     <rPh sb="17" eb="19">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>影の世界で動かせるもので光の世界での自分の動きを進めるという形になる。</t>
@@ -452,7 +452,7 @@
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>木
@@ -464,14 +464,14 @@
     <rPh sb="4" eb="5">
       <t>イタ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>ステージ構成</t>
     <rPh sb="4" eb="6">
       <t>コウセイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>チェックポイント
@@ -492,7 +492,7 @@
     <rPh sb="40" eb="41">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>主人公（プレイヤー）
@@ -521,7 +521,7 @@
     <rPh sb="32" eb="34">
       <t>メザ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>床
@@ -533,7 +533,7 @@
     <rPh sb="7" eb="9">
       <t>トウチャク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>看板
@@ -550,25 +550,25 @@
     <rPh sb="15" eb="16">
       <t>オシ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>オブジェクト種類</t>
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>背景</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>ひび</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>木の板</t>
@@ -578,81 +578,81 @@
     <rPh sb="2" eb="3">
       <t>イタ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>看板</t>
     <rPh sb="0" eb="2">
       <t>カンバン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>スイッチ</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>壁</t>
     <rPh sb="0" eb="1">
       <t>カベ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>床</t>
     <rPh sb="0" eb="1">
       <t>ユカ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>ブロック</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>歩きモーション</t>
     <rPh sb="0" eb="1">
       <t>アル</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>主人公</t>
     <rPh sb="0" eb="3">
       <t>シュジンコウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>グラフィック種類</t>
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
     </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>主人公オブジェクト：Obj_Hero</t>
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <t>主人公オブジェクト：Obj_Hero</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>主人公の攻撃オブジェクト:Obj_Attack</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ギミックブロック：Obj_G_Block○○←〇にはギミックの種類や番号振り分ける</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>スイッチブロック：Obj_Switch</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>敵オブジェクト:Obj_Enemy</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>メインオブジェクト:Obj_Main</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>敵出現ブロック</t>
@@ -662,43 +662,43 @@
     <rPh sb="1" eb="3">
       <t>シュツゲン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>敵に当たるとリトライ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>敵と接触</t>
@@ -708,7 +708,7 @@
     <rPh sb="2" eb="4">
       <t>セッショク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>影→光の描写</t>
@@ -721,14 +721,14 @@
     <rPh sb="4" eb="6">
       <t>ビョウシャ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>クリア時モーション</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>光(影)の世界でしか見えないスイッチ
@@ -764,11 +764,11 @@
     <rPh sb="27" eb="29">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ストーリー</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>影の世界の制限時間
@@ -802,104 +802,104 @@
     <rPh sb="21" eb="22">
       <t>シン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ステージブロック：Obj_Block</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>グラフィック作成(壁や床など複数)</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>グラフィック作成</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>スイッチが押されると消滅</t>
     <rPh sb="10" eb="12">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>メイン画面:Stage_1</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>立ちモージョン</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>クリア時モーション</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>強化時のグラフィック</t>
@@ -909,58 +909,58 @@
     <rPh sb="2" eb="3">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>立ち</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>消滅</t>
     <rPh sb="0" eb="2">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ステージセレクト</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>クリア</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>強化アイテム</t>
     <rPh sb="0" eb="2">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>G_Block</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>クリア時モーション追加</t>
@@ -970,7 +970,7 @@
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>アイテムで強化されていく→複数ある</t>
@@ -980,7 +980,7 @@
     <rPh sb="13" eb="15">
       <t>フクスウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>影→光の移動描写(ふわ～って感じ)</t>
@@ -999,19 +999,19 @@
     <rPh sb="14" eb="15">
       <t>カン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>属性の追加</t>
@@ -1021,7 +1021,7 @@
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>射程等の変化</t>
@@ -1034,19 +1034,19 @@
     <rPh sb="4" eb="6">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>その他仕様追加</t>
@@ -1059,7 +1059,7 @@
     <rPh sb="5" eb="7">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>複数用意する場合、色の変更など</t>
@@ -1078,41 +1078,41 @@
     <rPh sb="11" eb="13">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>攻撃</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>不動オブジェクト化?</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>強化アイテム:Obj_Item</t>
     <rPh sb="0" eb="2">
       <t>キョウカ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>グラフィック作成</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>主人公と接触で消える</t>
@@ -1125,7 +1125,7 @@
     <rPh sb="7" eb="8">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>フラグ切り替え</t>
@@ -1135,62 +1135,62 @@
     <rPh sb="5" eb="6">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>メイン画面:Stage_2</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>メイン画面:Stage_3</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>メイン画面:Stage_4</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>メイン画面:Stage_5</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>メイン画面:Stage_6</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>シーン作成</t>
     <rPh sb="3" eb="5">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>背景等読み込み・表示</t>
@@ -1209,33 +1209,33 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>エンターでステージセレクトへ</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>タイトル画面:SceneTitle＆Obj_Title</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ステージセレクト画面:SceneSelect&amp;ObjSelect</t>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>方向キーでステージを選んでエンターで入る</t>
@@ -1248,7 +1248,7 @@
     <rPh sb="18" eb="19">
       <t>ハイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>選択されたシーンへ飛ぶ</t>
@@ -1258,29 +1258,29 @@
     <rPh sb="9" eb="10">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ポーズ画面:Obj_Pause</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>グラフィック表示</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>ボタンで元に戻る</t>
@@ -1290,7 +1290,7 @@
     <rPh sb="6" eb="7">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>〇ボタンでポーズ画面出す</t>
@@ -1300,14 +1300,14 @@
     <rPh sb="10" eb="11">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>アイテム取得</t>
     <rPh sb="4" eb="6">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>スイッチ切り替え</t>
@@ -1317,11 +1317,11 @@
     <rPh sb="6" eb="7">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>リトライ</t>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>世界切り替え</t>
@@ -1334,85 +1334,85 @@
     <rPh sb="4" eb="5">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>カーソル移動</t>
     <rPh sb="4" eb="6">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>決定</t>
     <rPh sb="0" eb="2">
       <t>ケッテイ</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>効果音</t>
     <rPh sb="0" eb="3">
       <t>コウカオン</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>ステージ内</t>
     <rPh sb="4" eb="5">
       <t>ナイ</t>
     </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>ため攻撃で前方に一定距離飛ばせる(敵を貫通)</t>
+  </si>
+  <si>
+    <t>ダッシュ(一定距離をすばやく移動)</t>
+  </si>
+  <si>
+    <t>アイテム</t>
+  </si>
+  <si>
+    <t>主人公の属性を切り替える</t>
+  </si>
+  <si>
+    <t>ステージクリアで強化</t>
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <t>クリア</t>
+    <t>スイッチを押すと出現するブロック</t>
+  </si>
+  <si>
+    <t>ギミックブロック</t>
     <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>ステージセレクト</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>サウンド</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>ため攻撃で前方に一定距離飛ばせる(敵を貫通)</t>
-  </si>
-  <si>
-    <t>ダッシュ(一定距離をすばやく移動)</t>
-  </si>
-  <si>
-    <t>アイテム</t>
-  </si>
-  <si>
-    <t>主人公の属性を切り替える</t>
-  </si>
-  <si>
-    <t>ステージクリアで強化</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>スイッチを押すと出現するブロック</t>
-  </si>
-  <si>
-    <t>ギミックブロック</t>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>一定期間で消滅と再出現を繰り返すブロック</t>
@@ -1428,15 +1428,15 @@
     <rPh sb="14" eb="15">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>鍵を一定数取るとゲート開放するブロック</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>影の世界でしか見えないブロック</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>下記のゲートを解放するためのアイテム</t>
@@ -1446,24 +1446,24 @@
     <rPh sb="7" eb="9">
       <t>カイホウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>影の世界でしか見えない</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>影の世界
 でしか
 見えない</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>(仮)</t>
     <rPh sb="1" eb="2">
       <t>カリ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>影の世界でしか見えないブロック
@@ -1501,21 +1501,21 @@
     <rPh sb="44" eb="45">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>消滅するギミックブロック</t>
     <rPh sb="0" eb="2">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>出現するギミックブロック</t>
     <rPh sb="0" eb="2">
       <t>シュツゲン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>消滅するギミックブロック
@@ -1539,7 +1539,7 @@
     <rPh sb="39" eb="40">
       <t>ツク</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>消滅するギミックブロックに対応するスイッチ</t>
@@ -1549,7 +1549,7 @@
     <rPh sb="13" eb="15">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>出現するギミックブロック
@@ -1585,7 +1585,7 @@
     <rPh sb="50" eb="52">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -1602,7 +1602,7 @@
       </rPr>
       <t>ot image</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>出現するギミックブロックに対応するスイッチ</t>
@@ -1612,7 +1612,7 @@
     <rPh sb="13" eb="15">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>出現するギミックブロックに対応するスイッチ
@@ -1651,7 +1651,7 @@
     <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>消滅するギミックブロックに対応するスイッチ
@@ -1678,11 +1678,11 @@
     <rPh sb="49" eb="51">
       <t>ジョウタイ</t>
     </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>鍵を一定数取るとゲート開放</t>
     <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>鍵を一定数取るとゲート開放</t>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>鍵を一定数取り、触れると消えるブロック</t>
@@ -1692,7 +1692,7 @@
     <rPh sb="12" eb="13">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <r>
@@ -1709,11 +1709,11 @@
       </rPr>
       <t>ot image</t>
     </r>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>鍵となるアイテム</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>一定間隔で出現と消滅を繰り返すブロック</t>
@@ -1735,7 +1735,7 @@
     <rPh sb="13" eb="14">
       <t>カエ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>一定間隔で出現と消滅を繰り返すブロック
@@ -1773,7 +1773,7 @@
     <rPh sb="30" eb="32">
       <t>テンメツ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>鍵になるアイテム
@@ -1800,7 +1800,7 @@
     <rPh sb="40" eb="42">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>鍵を一定数取り、触れると消えるブロック
@@ -1830,14 +1830,14 @@
     <rPh sb="55" eb="56">
       <t>ケ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>5に対応するスイッチ</t>
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>スイッチを押すと出現するブロック
@@ -1854,7 +1854,7 @@
     <rPh sb="31" eb="33">
       <t>ショウメツ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>７に対応する、鍵となるアイテム</t>
@@ -1864,14 +1864,14 @@
     <rPh sb="7" eb="8">
       <t>カギ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>没</t>
     <rPh sb="0" eb="1">
       <t>ボツ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>敵キャラ
@@ -1885,7 +1885,7 @@
     <rPh sb="25" eb="26">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="15"/>
+    <phoneticPr fontId="16"/>
   </si>
   <si>
     <t>（前回との変更点）
@@ -1918,19 +1918,39 @@
     <rPh sb="57" eb="59">
       <t>チョウセイ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>G3:4</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>G2:5</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>G5:7</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2614,14 +2634,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2650,47 +2670,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2699,65 +2719,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2766,256 +2786,265 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3023,7 +3052,7 @@
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="53">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3452,129 +3481,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5011,7 +4917,7 @@
       <c r="K10" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5021,97 +4927,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16" width="9" style="47"/>
-    <col min="17" max="17" width="9" style="148"/>
+    <col min="17" max="17" width="9" style="81"/>
     <col min="18" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="L3" s="104" t="s">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="L3" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="106"/>
-      <c r="R3" s="143" t="s">
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="123"/>
+      <c r="R3" s="141" t="s">
         <v>298</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L4" s="107"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="112"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="129"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="R6" s="144"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="106"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="123"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="F9" s="145" t="s">
+      <c r="D9" s="133"/>
+      <c r="F9" s="134" t="s">
         <v>299</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="55"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="109"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="126"/>
       <c r="S9" s="66"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
@@ -5122,90 +5028,90 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
       <c r="I10" s="55"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="112"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="129"/>
       <c r="R10" s="73" t="s">
         <v>276</v>
       </c>
       <c r="S10" s="69"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="104" t="s">
+      <c r="U10" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="105"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="105"/>
-      <c r="Y10" s="106"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="123"/>
       <c r="Z10" s="70"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="100"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
       <c r="I11" s="55"/>
       <c r="S11" s="69"/>
-      <c r="T11" s="121" t="s">
+      <c r="T11" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="U11" s="107"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="109"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="126"/>
       <c r="Z11" s="70"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="103"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="118"/>
       <c r="I12" s="55"/>
       <c r="S12" s="69"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="109"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="126"/>
       <c r="Z12" s="70"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="S13" s="69"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="112"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="129"/>
       <c r="Z13" s="70"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="116"/>
-      <c r="J14" s="104" t="s">
+      <c r="G14" s="136"/>
+      <c r="J14" s="121" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="97"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="112"/>
       <c r="S14" s="71"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
@@ -5218,424 +5124,434 @@
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="118"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="100"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="138"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="115"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="120"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="103"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="140"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S17" s="80" t="s">
+      <c r="S17" s="143" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S18" s="81"/>
+      <c r="S18" s="144"/>
     </row>
     <row r="19" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="S19" s="81"/>
-      <c r="U19" s="82" t="s">
+      <c r="S19" s="144"/>
+      <c r="U19" s="145" t="s">
         <v>277</v>
       </c>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="84"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="95"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C20" s="94"/>
-      <c r="E20" s="95" t="s">
+      <c r="C20" s="109"/>
+      <c r="E20" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="121" t="s">
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="112"/>
+      <c r="S20" s="144"/>
+      <c r="T20" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="U20" s="85"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="87"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="98"/>
     </row>
     <row r="21" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="94"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="100"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="87"/>
+      <c r="C21" s="109"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="115"/>
+      <c r="S21" s="144"/>
+      <c r="T21" s="103"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="98"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C22" s="94"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="100"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="90"/>
+      <c r="C22" s="109"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="115"/>
+      <c r="S22" s="144"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="101"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S24" s="127" t="s">
+      <c r="S24" s="105" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="S25" s="128"/>
+      <c r="S25" s="106"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C26" s="94"/>
-      <c r="E26" s="124" t="s">
+      <c r="C26" s="109"/>
+      <c r="E26" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="S26" s="128"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="112"/>
+      <c r="S26" s="106"/>
       <c r="U26" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="84"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="95"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C27" s="94"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="121" t="s">
+      <c r="C27" s="109"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="115"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="U27" s="85"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="87"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="98"/>
     </row>
     <row r="28" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="94"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="100"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="87"/>
+      <c r="C28" s="109"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="115"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="98"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C29" s="94"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="103"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="90"/>
+      <c r="C29" s="109"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="118"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="101"/>
     </row>
     <row r="30" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="94"/>
+      <c r="C30" s="109"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="146" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C33" s="92"/>
+      <c r="C33" s="147"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C34" s="92"/>
+      <c r="C34" s="147"/>
       <c r="E34" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="84"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="95"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C35" s="92"/>
-      <c r="D35" s="121" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="87"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C36" s="92"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C37" s="92"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="90"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="101"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="119" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C40" s="126"/>
+      <c r="C40" s="120"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C41" s="126"/>
+      <c r="C41" s="120"/>
       <c r="E41" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="84"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="95"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C42" s="126"/>
-      <c r="D42" s="121" t="s">
+      <c r="C42" s="120"/>
+      <c r="D42" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="87"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C43" s="126"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="98"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C44" s="126"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="90"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
     </row>
     <row r="46" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="107" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C47" s="130"/>
+      <c r="C47" s="108"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C48" s="130"/>
+      <c r="C48" s="108"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C49" s="130"/>
+      <c r="C49" s="108"/>
       <c r="E49" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="84"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="95"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C50" s="130"/>
-      <c r="D50" s="121" t="s">
+      <c r="C50" s="108"/>
+      <c r="D50" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="87"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="98"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C51" s="130"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="87"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="98"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C52" s="130"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="90"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="101"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C54" s="129" t="s">
+      <c r="C54" s="107" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C55" s="130"/>
+      <c r="C55" s="108"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C56" s="130"/>
+      <c r="C56" s="108"/>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C57" s="130"/>
+      <c r="C57" s="108"/>
       <c r="E57" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="84"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="95"/>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C58" s="130"/>
-      <c r="D58" s="121" t="s">
+      <c r="C58" s="108"/>
+      <c r="D58" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="E58" s="85"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="87"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="97"/>
+      <c r="J58" s="98"/>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C59" s="130"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="87"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="98"/>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C60" s="130"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="90"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E57:J60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="S24:S29"/>
-    <mergeCell ref="U26:Z29"/>
-    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E20:K23"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="F14:G16"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="R3:T6"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="L3:O5"/>
+    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="J14:O16"/>
+    <mergeCell ref="U10:Y13"/>
+    <mergeCell ref="S17:S22"/>
+    <mergeCell ref="U19:Z22"/>
     <mergeCell ref="C46:C52"/>
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="E49:J52"/>
@@ -5646,25 +5562,15 @@
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="E41:J44"/>
     <mergeCell ref="D42:D44"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="L3:O5"/>
-    <mergeCell ref="L8:O10"/>
-    <mergeCell ref="J14:O16"/>
-    <mergeCell ref="U10:Y13"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F9:H12"/>
-    <mergeCell ref="F14:G16"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="R3:T6"/>
-    <mergeCell ref="S17:S22"/>
-    <mergeCell ref="U19:Z22"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="E34:J37"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E20:K23"/>
+    <mergeCell ref="E57:J60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="S24:S29"/>
+    <mergeCell ref="U26:Z29"/>
+    <mergeCell ref="T27:T29"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="S17">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>6</formula>
@@ -5817,7 +5723,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5906,7 +5812,7 @@
       <c r="E7" s="43"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5927,11 +5833,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -5990,7 +5896,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6125,7 +6031,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6148,11 +6054,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -6199,7 +6105,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6321,7 +6227,7 @@
       <c r="D13" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6390,7 +6296,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6510,7 +6416,7 @@
       <c r="H9" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7198,7 +7104,7 @@
       <c r="H49" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="A3">
     <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>"〇"</formula>
@@ -7280,7 +7186,7 @@
       <c r="D4" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8020,7 +7926,7 @@
       <c r="G62" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"〇"</formula>
@@ -9202,7 +9108,7 @@
       <c r="G71" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="D60:XFD61 A68:XFD68 A71:XFD1048576 A60:A62 B69:XFD69 C70:XFD70 B61:B62 A64:A67 A1:XFD59 D65:XFD67 D62:I64 K62:XFD64 J62:J63">
     <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"×"</formula>
@@ -9220,8 +9126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9232,7 +9138,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="74">
+      <c r="B2" s="151">
         <v>1</v>
       </c>
       <c r="C2" s="74" t="s">
@@ -9241,17 +9147,17 @@
       <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="74">
+      <c r="B3" s="151">
         <v>2</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="74">
+      <c r="B4" s="151">
         <v>3</v>
       </c>
       <c r="C4" s="75" t="s">
@@ -9260,8 +9166,8 @@
       <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="75">
-        <v>4</v>
+      <c r="B5" s="152" t="s">
+        <v>301</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>274</v>
@@ -9270,16 +9176,16 @@
       <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="75">
-        <v>5</v>
-      </c>
-      <c r="C6" s="137" t="s">
+      <c r="B6" s="152" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="136">
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="79">
         <v>6</v>
       </c>
       <c r="H6" s="74" t="s">
@@ -9289,17 +9195,17 @@
       <c r="J6" s="74"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="134"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="74">
-        <v>7</v>
-      </c>
-      <c r="C8" s="135" t="s">
+      <c r="B8" s="151" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="78" t="s">
         <v>287</v>
       </c>
       <c r="D8" s="74"/>
@@ -9312,10 +9218,10 @@
       </c>
       <c r="I8" s="74"/>
       <c r="J8" s="74"/>
-      <c r="K8" s="136"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="74">
+      <c r="B9" s="151">
         <v>0</v>
       </c>
       <c r="C9" s="74" t="s">
@@ -9324,91 +9230,91 @@
       <c r="D9" s="74"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C6:F7"/>
     <mergeCell ref="B14:I16"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9427,54 +9333,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS6" s="76" t="s">
+      <c r="AS6" s="89" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS7" s="77"/>
+      <c r="AS7" s="90"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS8" s="77"/>
+      <c r="AS8" s="90"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS9" s="77"/>
+      <c r="AS9" s="90"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS10" s="77"/>
+      <c r="AS10" s="90"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS11" s="77"/>
+      <c r="AS11" s="90"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.4">
       <c r="N12" s="51"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
       <c r="V12" s="49"/>
-      <c r="AS12" s="77"/>
+      <c r="AS12" s="90"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C13" s="53"/>
@@ -9482,7 +9388,7 @@
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
       <c r="V13" s="49"/>
-      <c r="AS13" s="77"/>
+      <c r="AS13" s="90"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C14" s="52"/>
@@ -9493,7 +9399,7 @@
       <c r="X14" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="AS14" s="77"/>
+      <c r="AS14" s="90"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A15" s="48"/>
@@ -12860,7 +12766,7 @@
     <mergeCell ref="AS6:AS14"/>
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="AY30:CV30 AY24:BD24 BF24:BJ24 BE23:BE24 A21:AX30 AY25:BJ29 BL24:CV29">
     <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
       <formula>6</formula>
@@ -15957,7 +15863,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="CA4:CV9 A1:CU9 A10:CV10">
     <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>6</formula>

--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\Lamp_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
@@ -2834,6 +2834,15 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2867,58 +2876,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2944,39 +2905,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3011,11 +2939,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3026,33 +2990,405 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -3310,139 +3646,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -3488,6 +3691,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFCC00CC"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFCC9900"/>
@@ -4939,85 +5143,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="L3" s="121" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="L3" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="123"/>
-      <c r="R3" s="141" t="s">
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124"/>
+      <c r="R3" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L4" s="124"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="127"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L5" s="127"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="129"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="130"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="R6" s="142"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L8" s="121" t="s">
+      <c r="L8" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="124"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="133"/>
-      <c r="F9" s="134" t="s">
+      <c r="D9" s="109"/>
+      <c r="F9" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="55"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="126"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
       <c r="S9" s="66"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
@@ -5028,90 +5232,90 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="55"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="129"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
       <c r="R10" s="73" t="s">
         <v>276</v>
       </c>
       <c r="S10" s="69"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="121" t="s">
+      <c r="U10" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="124"/>
       <c r="Z10" s="70"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="55"/>
       <c r="S11" s="69"/>
-      <c r="T11" s="102" t="s">
+      <c r="T11" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="U11" s="124"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="126"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="127"/>
       <c r="Z11" s="70"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="105"/>
       <c r="I12" s="55"/>
       <c r="S12" s="69"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="126"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="127"/>
       <c r="Z12" s="70"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="S13" s="69"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="129"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="130"/>
       <c r="Z13" s="70"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="135" t="s">
+      <c r="F14" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="J14" s="121" t="s">
+      <c r="G14" s="112"/>
+      <c r="J14" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="112"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
       <c r="S14" s="71"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
@@ -5124,437 +5328,419 @@
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="138"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="115"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="114"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="140"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S17" s="143" t="s">
+      <c r="S17" s="131" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S18" s="144"/>
+      <c r="S18" s="132"/>
     </row>
     <row r="19" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="S19" s="144"/>
-      <c r="U19" s="145" t="s">
+      <c r="S19" s="132"/>
+      <c r="U19" s="133" t="s">
         <v>277</v>
       </c>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="95"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="135"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C20" s="109"/>
-      <c r="E20" s="148" t="s">
+      <c r="C20" s="96"/>
+      <c r="E20" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="112"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="102" t="s">
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="U20" s="96"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="98"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="138"/>
     </row>
     <row r="21" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="109"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="115"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="98"/>
+      <c r="C21" s="96"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="138"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C22" s="109"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="115"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="101"/>
+      <c r="C22" s="96"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
+      <c r="Z22" s="141"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="105"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S24" s="105" t="s">
+      <c r="S24" s="150" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="S25" s="106"/>
+      <c r="S25" s="151"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C26" s="109"/>
-      <c r="E26" s="110" t="s">
+      <c r="C26" s="96"/>
+      <c r="E26" s="145" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="112"/>
-      <c r="S26" s="106"/>
-      <c r="U26" s="93" t="s">
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="S26" s="151"/>
+      <c r="U26" s="144" t="s">
         <v>292</v>
       </c>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="95"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="135"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C27" s="109"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="102" t="s">
+      <c r="C27" s="96"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="U27" s="96"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="98"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="138"/>
     </row>
     <row r="28" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="109"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="115"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="98"/>
+      <c r="C28" s="96"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="138"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C29" s="109"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="118"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="101"/>
+      <c r="C29" s="96"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="105"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="140"/>
+      <c r="W29" s="140"/>
+      <c r="X29" s="140"/>
+      <c r="Y29" s="140"/>
+      <c r="Z29" s="141"/>
     </row>
     <row r="30" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="109"/>
+      <c r="C30" s="96"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="148" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C33" s="147"/>
+      <c r="C33" s="149"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C34" s="147"/>
-      <c r="E34" s="93" t="s">
+      <c r="C34" s="149"/>
+      <c r="E34" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="135"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C35" s="147"/>
-      <c r="D35" s="102" t="s">
+      <c r="C35" s="149"/>
+      <c r="D35" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="98"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="138"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C36" s="147"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="98"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C37" s="147"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="101"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="141"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C39" s="119" t="s">
+      <c r="C39" s="146" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C40" s="120"/>
+      <c r="C40" s="147"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C41" s="120"/>
-      <c r="E41" s="93" t="s">
+      <c r="C41" s="147"/>
+      <c r="E41" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="95"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="135"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C42" s="120"/>
-      <c r="D42" s="102" t="s">
+      <c r="C42" s="147"/>
+      <c r="D42" s="117" t="s">
         <v>283</v>
       </c>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="138"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C43" s="120"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="98"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="138"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C44" s="120"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="101"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="141"/>
     </row>
     <row r="46" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="142" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C47" s="108"/>
+      <c r="C47" s="143"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C48" s="108"/>
+      <c r="C48" s="143"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C49" s="108"/>
-      <c r="E49" s="93" t="s">
+      <c r="C49" s="143"/>
+      <c r="E49" s="144" t="s">
         <v>294</v>
       </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="95"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="135"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C50" s="108"/>
-      <c r="D50" s="102" t="s">
+      <c r="C50" s="143"/>
+      <c r="D50" s="117" t="s">
         <v>289</v>
       </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="98"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="138"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C51" s="108"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="98"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="138"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C52" s="108"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="101"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="141"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C54" s="107" t="s">
+      <c r="C54" s="142" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C55" s="108"/>
+      <c r="C55" s="143"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C56" s="108"/>
+      <c r="C56" s="143"/>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C57" s="108"/>
-      <c r="E57" s="93" t="s">
+      <c r="C57" s="143"/>
+      <c r="E57" s="144" t="s">
         <v>293</v>
       </c>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="95"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="135"/>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C58" s="108"/>
-      <c r="D58" s="102" t="s">
+      <c r="C58" s="143"/>
+      <c r="D58" s="117" t="s">
         <v>289</v>
       </c>
-      <c r="E58" s="96"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="98"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="138"/>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C59" s="108"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="98"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="138"/>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C60" s="108"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="101"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E20:K23"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F9:H12"/>
-    <mergeCell ref="F14:G16"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="R3:T6"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="L3:O5"/>
-    <mergeCell ref="L8:O10"/>
-    <mergeCell ref="J14:O16"/>
-    <mergeCell ref="U10:Y13"/>
-    <mergeCell ref="S17:S22"/>
-    <mergeCell ref="U19:Z22"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E49:J52"/>
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="E26:K29"/>
@@ -5566,48 +5752,66 @@
     <mergeCell ref="E34:J37"/>
     <mergeCell ref="E57:J60"/>
     <mergeCell ref="D58:D60"/>
+    <mergeCell ref="U10:Y13"/>
+    <mergeCell ref="S17:S22"/>
+    <mergeCell ref="U19:Z22"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E49:J52"/>
     <mergeCell ref="S24:S29"/>
     <mergeCell ref="U26:Z29"/>
     <mergeCell ref="T27:T29"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="R3:T6"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="L3:O5"/>
+    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="J14:O16"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="E20:K23"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="F14:G16"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5833,11 +6037,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -6054,11 +6258,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -7106,17 +7310,17 @@
   </sheetData>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7928,7 +8132,7 @@
   </sheetData>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9110,10 +9314,10 @@
   </sheetData>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="D60:XFD61 A68:XFD68 A71:XFD1048576 A60:A62 B69:XFD69 C70:XFD70 B61:B62 A64:A67 A1:XFD59 D65:XFD67 D62:I64 K62:XFD64 J62:J63">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>"×"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9126,7 +9330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -9138,7 +9342,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="151">
+      <c r="B2" s="82">
         <v>1</v>
       </c>
       <c r="C2" s="74" t="s">
@@ -9147,7 +9351,7 @@
       <c r="D2" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="151">
+      <c r="B3" s="82">
         <v>2</v>
       </c>
       <c r="C3" s="77" t="s">
@@ -9157,7 +9361,7 @@
       <c r="E3" s="76"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="151">
+      <c r="B4" s="82">
         <v>3</v>
       </c>
       <c r="C4" s="75" t="s">
@@ -9166,7 +9370,7 @@
       <c r="D4" s="75"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="83" t="s">
         <v>301</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -9176,15 +9380,15 @@
       <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="83" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="79">
         <v>6</v>
       </c>
@@ -9195,14 +9399,14 @@
       <c r="J6" s="74"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="153"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="82" t="s">
         <v>303</v>
       </c>
       <c r="C8" s="78" t="s">
@@ -9221,7 +9425,7 @@
       <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="151">
+      <c r="B9" s="82">
         <v>0</v>
       </c>
       <c r="C9" s="74" t="s">
@@ -9230,42 +9434,42 @@
       <c r="D9" s="74"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
       <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
       <c r="J15" s="80"/>
       <c r="K15" s="80"/>
       <c r="L15" s="80"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
       <c r="J16" s="80"/>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
@@ -9323,8 +9527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV30"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="O36" sqref="A34:O36"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="CV30" sqref="A21:CV30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9333,54 +9537,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS6" s="89" t="s">
+      <c r="AS6" s="92" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS7" s="90"/>
+      <c r="AS7" s="93"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS8" s="90"/>
+      <c r="AS8" s="93"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS9" s="90"/>
+      <c r="AS9" s="93"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS10" s="90"/>
+      <c r="AS10" s="93"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS11" s="90"/>
+      <c r="AS11" s="93"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.4">
       <c r="N12" s="51"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
       <c r="V12" s="49"/>
-      <c r="AS12" s="90"/>
+      <c r="AS12" s="93"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C13" s="53"/>
@@ -9388,7 +9592,7 @@
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
       <c r="V13" s="49"/>
-      <c r="AS13" s="90"/>
+      <c r="AS13" s="93"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C14" s="52"/>
@@ -9399,7 +9603,7 @@
       <c r="X14" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="AS14" s="90"/>
+      <c r="AS14" s="93"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A15" s="48"/>
@@ -10016,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="CN21" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO21" s="58">
         <v>0</v>
@@ -10318,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="CN22" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO22" s="58">
         <v>0</v>
@@ -10620,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="CN23" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO23" s="58">
         <v>0</v>
@@ -10922,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="CN24" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO24" s="58">
         <v>0</v>
@@ -11218,13 +11422,13 @@
         <v>0</v>
       </c>
       <c r="CL25" s="58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CM25" s="58">
         <v>0</v>
       </c>
       <c r="CN25" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO25" s="58">
         <v>0</v>
@@ -11526,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="CN26" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO26" s="58">
         <v>0</v>
@@ -11828,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="CN27" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO27" s="58">
         <v>0</v>
@@ -12130,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="CN28" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO28" s="58">
         <v>0</v>
@@ -12384,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="BX29" s="58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BY29" s="58">
         <v>0</v>
@@ -12396,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="CB29" s="58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CC29" s="58">
         <v>0</v>
@@ -12432,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="CN29" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO29" s="58">
         <v>0</v>
@@ -12641,10 +12845,10 @@
         <v>1</v>
       </c>
       <c r="BI30" s="58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ30" s="58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK30" s="58">
         <v>1</v>
@@ -12767,60 +12971,72 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
-  <conditionalFormatting sqref="AY30:CV30 AY24:BD24 BF24:BJ24 BE23:BE24 A21:AX30 AY25:BJ29 BL24:CV29">
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+  <conditionalFormatting sqref="AY24:BD24 BF24:BJ24 BE23:BE24 A21:AX30 AY25:BJ29 BL24:CV29 AY30:CV30">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY21:CV21 AY23:BD23 BF23:BJ23 AY22:BJ22 BL22:CV23 BK22:BK29">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+  <conditionalFormatting sqref="AY21:CV21 AY23:BD23 BF23:BJ23 AY22:BJ22 BL22:CV23 BK22:BK29 CN22:CN29">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE23">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+      <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12834,7 +13050,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+      <selection activeCell="AH7" sqref="AH7:AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13541,13 +13757,13 @@
         <v>0</v>
       </c>
       <c r="AF3" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI3" s="58">
         <v>0</v>
@@ -13807,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U4" s="58">
         <v>0</v>
@@ -13843,13 +14059,13 @@
         <v>0</v>
       </c>
       <c r="AF4" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH4" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI4" s="58">
         <v>0</v>
@@ -14109,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="58">
         <v>0</v>
@@ -14145,13 +14361,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="58">
         <v>0</v>
@@ -14411,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6" s="58">
         <v>0</v>
@@ -14713,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U7" s="58">
         <v>0</v>
@@ -15015,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U8" s="58">
         <v>0</v>
@@ -15243,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CS8" s="58">
         <v>0</v>
@@ -15317,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U9" s="58">
         <v>0</v>
@@ -15628,16 +15844,16 @@
         <v>1</v>
       </c>
       <c r="W10" s="58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X10" s="58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="58">
         <v>1</v>
@@ -15864,67 +16080,72 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
-  <conditionalFormatting sqref="CA4:CV9 A1:CU9 A10:CV10">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+  <conditionalFormatting sqref="BL4:CV9 AD1:CO9 AY10:CV10 A1:AX10">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP1:CV3">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+  <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9 CN4:CN9">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BE3">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -2876,10 +2876,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2906,39 +2912,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2948,11 +2921,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2990,59 +2996,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3052,69 +3052,7 @@
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <font>
         <color theme="0"/>
@@ -3126,26 +3064,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill>
+          <bgColor rgb="FFCC9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3154,22 +3089,18 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3391,32 +3322,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3426,41 +3336,39 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
+        <patternFill>
+          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3470,21 +3378,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3495,57 +3389,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5143,85 +4986,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="L3" s="122" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="L3" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="124"/>
-      <c r="R3" s="120" t="s">
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="126"/>
+      <c r="R3" s="138" t="s">
         <v>298</v>
       </c>
       <c r="S3" s="93"/>
       <c r="T3" s="93"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="127"/>
-      <c r="R4" s="121"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="129"/>
+      <c r="R4" s="139"/>
       <c r="S4" s="93"/>
       <c r="T4" s="93"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L5" s="128"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="130"/>
-      <c r="R5" s="121"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="132"/>
+      <c r="R5" s="139"/>
       <c r="S5" s="93"/>
       <c r="T5" s="93"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="R6" s="121"/>
+      <c r="R6" s="139"/>
       <c r="S6" s="93"/>
       <c r="T6" s="93"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L8" s="122" t="s">
+      <c r="L8" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="124"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="126"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="F9" s="110" t="s">
+      <c r="D9" s="144"/>
+      <c r="F9" s="145" t="s">
         <v>299</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="55"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="129"/>
       <c r="S9" s="66"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
@@ -5232,90 +5075,90 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
       <c r="I10" s="55"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
       <c r="R10" s="73" t="s">
         <v>276</v>
       </c>
       <c r="S10" s="69"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="122" t="s">
+      <c r="U10" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="124"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="126"/>
       <c r="Z10" s="70"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="55"/>
       <c r="S11" s="69"/>
-      <c r="T11" s="117" t="s">
+      <c r="T11" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="U11" s="125"/>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="129"/>
       <c r="Z11" s="70"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
       <c r="I12" s="55"/>
       <c r="S12" s="69"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="127"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="129"/>
       <c r="Z12" s="70"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="S13" s="69"/>
-      <c r="T13" s="119"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="130"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="132"/>
       <c r="Z13" s="70"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="J14" s="122" t="s">
+      <c r="G14" s="147"/>
+      <c r="J14" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="99"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="101"/>
       <c r="S14" s="71"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
@@ -5328,419 +5171,440 @@
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="104"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="105"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="151"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="107"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S17" s="131" t="s">
+      <c r="S17" s="133" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S18" s="132"/>
+      <c r="S18" s="134"/>
     </row>
     <row r="19" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="S19" s="132"/>
-      <c r="U19" s="133" t="s">
+      <c r="S19" s="134"/>
+      <c r="U19" s="135" t="s">
         <v>277</v>
       </c>
-      <c r="V19" s="134"/>
-      <c r="W19" s="134"/>
-      <c r="X19" s="134"/>
-      <c r="Y19" s="134"/>
-      <c r="Z19" s="135"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="115"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C20" s="96"/>
-      <c r="E20" s="97" t="s">
+      <c r="C20" s="98"/>
+      <c r="E20" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="117" t="s">
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="101"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="U20" s="136"/>
-      <c r="V20" s="137"/>
-      <c r="W20" s="137"/>
-      <c r="X20" s="137"/>
-      <c r="Y20" s="137"/>
-      <c r="Z20" s="138"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="118"/>
     </row>
     <row r="21" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="96"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="136"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="138"/>
+      <c r="C21" s="98"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="104"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="118"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C22" s="96"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="139"/>
-      <c r="V22" s="140"/>
-      <c r="W22" s="140"/>
-      <c r="X22" s="140"/>
-      <c r="Y22" s="140"/>
-      <c r="Z22" s="141"/>
+      <c r="C22" s="98"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="104"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="121"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S24" s="150" t="s">
+      <c r="S24" s="136" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="S25" s="151"/>
+      <c r="S25" s="137"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C26" s="96"/>
-      <c r="E26" s="145" t="s">
+      <c r="C26" s="98"/>
+      <c r="E26" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="S26" s="151"/>
-      <c r="U26" s="144" t="s">
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="101"/>
+      <c r="S26" s="137"/>
+      <c r="U26" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="V26" s="134"/>
-      <c r="W26" s="134"/>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="134"/>
-      <c r="Z26" s="135"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="115"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C27" s="96"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="117" t="s">
+      <c r="C27" s="98"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="104"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="U27" s="136"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="138"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="118"/>
     </row>
     <row r="28" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="96"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="138"/>
+      <c r="C28" s="98"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="104"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="118"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C29" s="96"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="105"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="139"/>
-      <c r="V29" s="140"/>
-      <c r="W29" s="140"/>
-      <c r="X29" s="140"/>
-      <c r="Y29" s="140"/>
-      <c r="Z29" s="141"/>
+      <c r="C29" s="98"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="107"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="119"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="121"/>
     </row>
     <row r="30" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="96"/>
+      <c r="C30" s="98"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="122" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C33" s="149"/>
+      <c r="C33" s="123"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C34" s="149"/>
-      <c r="E34" s="144" t="s">
+      <c r="C34" s="123"/>
+      <c r="E34" s="113" t="s">
         <v>282</v>
       </c>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="135"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="115"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C35" s="149"/>
-      <c r="D35" s="117" t="s">
+      <c r="C35" s="123"/>
+      <c r="D35" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="136"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="138"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C36" s="149"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="138"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C37" s="149"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="141"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="121"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C40" s="147"/>
+      <c r="C40" s="112"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C41" s="147"/>
-      <c r="E41" s="144" t="s">
+      <c r="C41" s="112"/>
+      <c r="E41" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="135"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="115"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C42" s="147"/>
-      <c r="D42" s="117" t="s">
+      <c r="C42" s="112"/>
+      <c r="D42" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E42" s="136"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="138"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="118"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C43" s="147"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="138"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="118"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C44" s="147"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="141"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="121"/>
     </row>
     <row r="46" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="142" t="s">
+      <c r="C46" s="96" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C47" s="143"/>
+      <c r="C47" s="97"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C48" s="143"/>
+      <c r="C48" s="97"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C49" s="143"/>
-      <c r="E49" s="144" t="s">
+      <c r="C49" s="97"/>
+      <c r="E49" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="135"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C50" s="143"/>
-      <c r="D50" s="117" t="s">
+      <c r="C50" s="97"/>
+      <c r="D50" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E50" s="136"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="138"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="118"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C51" s="143"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="138"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="118"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C52" s="143"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="141"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="121"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C54" s="142" t="s">
+      <c r="C54" s="96" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C55" s="143"/>
+      <c r="C55" s="97"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C56" s="143"/>
+      <c r="C56" s="97"/>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C57" s="143"/>
-      <c r="E57" s="144" t="s">
+      <c r="C57" s="97"/>
+      <c r="E57" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="135"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="115"/>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C58" s="143"/>
-      <c r="D58" s="117" t="s">
+      <c r="C58" s="97"/>
+      <c r="D58" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="E58" s="136"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
-      <c r="J58" s="138"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="118"/>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C59" s="143"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="138"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="118"/>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C60" s="143"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="141"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R3:T6"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="L3:O5"/>
+    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="J14:O16"/>
+    <mergeCell ref="E20:K23"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="F14:G16"/>
+    <mergeCell ref="U10:Y13"/>
+    <mergeCell ref="S17:S22"/>
+    <mergeCell ref="U19:Z22"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E49:J52"/>
+    <mergeCell ref="S24:S29"/>
+    <mergeCell ref="U26:Z29"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="E26:K29"/>
@@ -5752,66 +5616,45 @@
     <mergeCell ref="E34:J37"/>
     <mergeCell ref="E57:J60"/>
     <mergeCell ref="D58:D60"/>
-    <mergeCell ref="U10:Y13"/>
-    <mergeCell ref="S17:S22"/>
-    <mergeCell ref="U19:Z22"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E49:J52"/>
-    <mergeCell ref="S24:S29"/>
-    <mergeCell ref="U26:Z29"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="R3:T6"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="L3:O5"/>
-    <mergeCell ref="L8:O10"/>
-    <mergeCell ref="J14:O16"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="E20:K23"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F9:H12"/>
-    <mergeCell ref="F14:G16"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7310,17 +7153,17 @@
   </sheetData>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8132,7 +7975,7 @@
   </sheetData>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9314,10 +9157,10 @@
   </sheetData>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="D60:XFD61 A68:XFD68 A71:XFD1048576 A60:A62 B69:XFD69 C70:XFD70 B61:B62 A64:A67 A1:XFD59 D65:XFD67 D62:I64 K62:XFD64 J62:J63">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"×"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9527,8 +9370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="CV30" sqref="A21:CV30"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="BM35" sqref="BM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12543,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ29" s="58">
         <v>0</v>
@@ -12839,10 +12682,10 @@
         <v>1</v>
       </c>
       <c r="BG30" s="58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH30" s="58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI30" s="58">
         <v>4</v>
@@ -12972,71 +12815,71 @@
   </mergeCells>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="AY24:BD24 BF24:BJ24 BE23:BE24 A21:AX30 AY25:BJ29 BL24:CV29 AY30:CV30">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY21:CV21 AY23:BD23 BF23:BJ23 AY22:BJ22 BL22:CV23 BK22:BK29 CN22:CN29">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE23">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+      <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
-      <formula>8</formula>
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13050,7 +12893,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7:AY10"/>
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13757,40 +13600,40 @@
         <v>0</v>
       </c>
       <c r="AF3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="58">
         <v>5</v>
       </c>
-      <c r="AG3" s="58">
+      <c r="AP3" s="58">
         <v>5</v>
       </c>
-      <c r="AH3" s="58">
+      <c r="AQ3" s="58">
         <v>5</v>
-      </c>
-      <c r="AI3" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="58">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="58">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="58">
-        <v>0</v>
       </c>
       <c r="AR3" s="58">
         <v>0</v>
@@ -14059,40 +13902,40 @@
         <v>0</v>
       </c>
       <c r="AF4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="58">
         <v>5</v>
       </c>
-      <c r="AG4" s="58">
+      <c r="AP4" s="58">
         <v>7</v>
       </c>
-      <c r="AH4" s="58">
+      <c r="AQ4" s="58">
         <v>5</v>
-      </c>
-      <c r="AI4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="58">
-        <v>0</v>
       </c>
       <c r="AR4" s="58">
         <v>0</v>
@@ -14361,40 +14204,40 @@
         <v>0</v>
       </c>
       <c r="AF5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="58">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="58">
         <v>5</v>
       </c>
-      <c r="AG5" s="58">
+      <c r="AP5" s="58">
         <v>5</v>
       </c>
-      <c r="AH5" s="58">
+      <c r="AQ5" s="58">
         <v>5</v>
-      </c>
-      <c r="AI5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="58">
-        <v>0</v>
       </c>
       <c r="AR5" s="58">
         <v>0</v>
@@ -15844,34 +15687,34 @@
         <v>1</v>
       </c>
       <c r="W10" s="58">
+        <v>1</v>
+      </c>
+      <c r="X10" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="58">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="58">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="58">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="58">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="58">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="58">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="58">
         <v>5</v>
       </c>
-      <c r="X10" s="58">
+      <c r="AF10" s="58">
         <v>5</v>
-      </c>
-      <c r="Y10" s="58">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="58">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="58">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="58">
-        <v>1</v>
       </c>
       <c r="AG10" s="58">
         <v>1</v>
@@ -16080,71 +15923,71 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
-  <conditionalFormatting sqref="BL4:CV9 AD1:CO9 AY10:CV10 A1:AX10">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+  <conditionalFormatting sqref="BL4:CV9 A1:CO9 A10:CV10">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9 CN4:CN9">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="9540" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="1" r:id="rId1"/>
@@ -9370,8 +9370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="BM35" sqref="BM35"/>
+    <sheetView topLeftCell="AL7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="CF13" sqref="CF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="CN21" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO21" s="58">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="CN22" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO22" s="58">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="CN23" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO23" s="58">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="CN24" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO24" s="58">
         <v>0</v>
@@ -11265,13 +11265,13 @@
         <v>0</v>
       </c>
       <c r="CL25" s="58">
+        <v>8</v>
+      </c>
+      <c r="CM25" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN25" s="58">
         <v>7</v>
-      </c>
-      <c r="CM25" s="58">
-        <v>0</v>
-      </c>
-      <c r="CN25" s="58">
-        <v>8</v>
       </c>
       <c r="CO25" s="58">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="CN26" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO26" s="58">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="CN27" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO27" s="58">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="CN28" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO28" s="58">
         <v>0</v>
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="BX29" s="58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY29" s="58">
         <v>0</v>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="CB29" s="58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC29" s="58">
         <v>0</v>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="CN29" s="58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CO29" s="58">
         <v>0</v>
@@ -12892,8 +12892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK1" s="58">
         <v>0</v>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="CO1" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP1" s="58">
         <v>0</v>
@@ -13388,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="58">
         <v>0</v>
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="CO2" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP2" s="58">
         <v>0</v>
@@ -13690,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" s="58">
         <v>0</v>
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="CO3" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP3" s="58">
         <v>0</v>
@@ -13986,13 +13986,13 @@
         <v>0</v>
       </c>
       <c r="BH4" s="58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI4" s="58">
         <v>0</v>
       </c>
       <c r="BJ4" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4" s="58">
         <v>0</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="CO4" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP4" s="58">
         <v>0</v>
@@ -14276,25 +14276,25 @@
         <v>0</v>
       </c>
       <c r="BD5" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE5" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI5" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="58">
         <v>0</v>
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="CO5" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP5" s="58">
         <v>0</v>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD6" s="58">
         <v>0</v>
@@ -14596,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK6" s="58">
         <v>0</v>
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="CO6" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP6" s="58">
         <v>0</v>
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC7" s="58">
         <v>0</v>
@@ -14898,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK7" s="58">
         <v>0</v>
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="CO7" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP7" s="58">
         <v>0</v>
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="58">
         <v>0</v>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="58">
         <v>0</v>
@@ -15149,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT8" s="58">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB8" s="58">
         <v>0</v>
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK8" s="58">
         <v>0</v>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="CO8" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP8" s="58">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA9" s="58">
         <v>0</v>
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK9" s="58">
         <v>0</v>
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="CA9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB9" s="58">
         <v>0</v>
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="CO9" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP9" s="58">
         <v>0</v>
@@ -15923,7 +15923,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
-  <conditionalFormatting sqref="BL4:CV9 A1:CO9 A10:CV10">
+  <conditionalFormatting sqref="BL4:CV9 A10:CV10 A1:CO9">
     <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -15943,7 +15943,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY1:CV1 AY3:BD3 BF3:BJ3 AY2:BJ2 BL2:CV3 BK2:BK9 CN4:CN9">
+  <conditionalFormatting sqref="BC3:BH3 BC1:BJ2 BL2:CV3 BK2:BK9 CN4:CN9 BJ2:BJ4 BK1:CV1 CO2:CO9">
     <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -15963,7 +15963,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3">
+  <conditionalFormatting sqref="BI3">
     <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>7</formula>
     </cfRule>

--- a/H.Hランプ仕様書β版.xlsx
+++ b/H.Hランプ仕様書β版.xlsx
@@ -2844,6 +2844,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2877,11 +2880,41 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2891,6 +2924,45 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2919,29 +2991,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2979,77 +3048,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5146,8 +5146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="CN6" sqref="CN6:CR8"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="CV10" sqref="A1:CV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="CQ1" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR1" s="58">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="CR2" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS2" s="58">
         <v>0</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="CB3" s="58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CC3" s="58">
         <v>0</v>
@@ -6344,19 +6344,19 @@
         <v>1</v>
       </c>
       <c r="CP4" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ4" s="58">
         <v>0</v>
       </c>
       <c r="CR4" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS4" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT4" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU4" s="58">
         <v>0</v>
@@ -6556,19 +6556,19 @@
         <v>1</v>
       </c>
       <c r="BL5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5" s="58">
         <v>0</v>
@@ -6583,16 +6583,16 @@
         <v>0</v>
       </c>
       <c r="BU5" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV5" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BW5" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BX5" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BY5" s="58">
         <v>1</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="CP5" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ5" s="58">
         <v>0</v>
@@ -6879,19 +6879,19 @@
         <v>0</v>
       </c>
       <c r="BS6" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT6" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU6" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV6" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BW6" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BX6" s="58">
         <v>5</v>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="CP6" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ6" s="58">
         <v>0</v>
@@ -7175,16 +7175,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR7" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS7" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT7" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU7" s="58">
         <v>0</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="BW7" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="58">
         <v>0</v>
@@ -7250,19 +7250,19 @@
         <v>0</v>
       </c>
       <c r="CP7" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ7" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR7" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS7" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT7" s="58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU7" s="58">
         <v>0</v>
@@ -7303,10 +7303,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="58">
+        <v>0</v>
+      </c>
+      <c r="L8" s="58">
         <v>2</v>
-      </c>
-      <c r="L8" s="58">
-        <v>0</v>
       </c>
       <c r="M8" s="58">
         <v>0</v>
@@ -7471,16 +7471,16 @@
         <v>0</v>
       </c>
       <c r="BO8" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BP8" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ8" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR8" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS8" s="58">
         <v>0</v>
@@ -7492,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="BV8" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BW8" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY8" s="58">
         <v>0</v>
@@ -7767,22 +7767,22 @@
         <v>0</v>
       </c>
       <c r="BM9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BO9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BP9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR9" s="58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS9" s="58">
         <v>0</v>
@@ -7791,16 +7791,16 @@
         <v>0</v>
       </c>
       <c r="BU9" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV9" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BW9" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY9" s="58">
         <v>6</v>
@@ -8063,10 +8063,10 @@
         <v>1</v>
       </c>
       <c r="BK10" s="58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL10" s="58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BM10" s="58">
         <v>1</v>
@@ -8178,11 +8178,11 @@
       </c>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.4">
-      <c r="AP15" s="154"/>
+      <c r="AP15" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
-  <conditionalFormatting sqref="A10:CV10 A1:CO1 CV2:CV9 CQ7:CR7 CR5:CR7 A2:CQ9">
+  <conditionalFormatting sqref="A1:CO1 CV2:CV9 CR5:CR7 A2:CP2 CQ1 A10:CV10 BS7:CT7 A3:CQ5 BS6:CQ6 A6:BT7 BU5:BX9 A8:CQ9">
     <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -8202,7 +8202,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3:BJ4 D1:CV1 V3:V4 CN3:CN8 CN4:CO9 D2:CK2 CI3:CK9 CG5:CM5 CL2:CL6 CM4:CO4 CP4:CP7 CQ7:CR7 CR2:CU9">
+  <conditionalFormatting sqref="BJ3:BJ4 D1:CP1 V3:V4 CN3:CN8 CN4:CO9 D2:CK2 CI3:CK9 CG5:CM5 CL2:CL6 CM4:CO4 CP4:CP7 CQ7:CT7 CR2:CU9 CR1:CV1 CQ2">
     <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -8271,85 +8271,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="120"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="L3" s="101" t="s">
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="L3" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="103"/>
-      <c r="R3" s="96" t="s">
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="127"/>
+      <c r="R3" s="139" t="s">
         <v>298</v>
       </c>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L4" s="104"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="106"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="130"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L5" s="107"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="133"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="R6" s="97"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="L8" s="101" t="s">
+      <c r="L8" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="103"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="127"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="F9" s="123" t="s">
+      <c r="D9" s="145"/>
+      <c r="F9" s="146" t="s">
         <v>299</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="111"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="55"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="106"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="130"/>
       <c r="S9" s="66"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
@@ -8360,90 +8360,90 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="105"/>
       <c r="I10" s="55"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="109"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="133"/>
       <c r="R10" s="73" t="s">
         <v>276</v>
       </c>
       <c r="S10" s="69"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="101" t="s">
+      <c r="U10" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="103"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="127"/>
       <c r="Z10" s="70"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="114"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
       <c r="I11" s="55"/>
       <c r="S11" s="69"/>
-      <c r="T11" s="98" t="s">
+      <c r="T11" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="U11" s="104"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="105"/>
-      <c r="Y11" s="106"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="130"/>
       <c r="Z11" s="70"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
       <c r="I12" s="55"/>
       <c r="S12" s="69"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="105"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="106"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="130"/>
       <c r="Z12" s="70"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="S13" s="69"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="109"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="133"/>
       <c r="Z13" s="70"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="125"/>
-      <c r="J14" s="101" t="s">
+      <c r="G14" s="148"/>
+      <c r="J14" s="125" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="111"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="102"/>
       <c r="S14" s="71"/>
       <c r="T14" s="65"/>
       <c r="U14" s="65"/>
@@ -8456,419 +8456,440 @@
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="54"/>
       <c r="D15" s="54"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="127"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="150"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="105"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="129"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="117"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="152"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="108"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S17" s="130" t="s">
+      <c r="S17" s="134" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S18" s="131"/>
+      <c r="S18" s="135"/>
     </row>
     <row r="19" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="S19" s="131"/>
-      <c r="U19" s="132" t="s">
+      <c r="S19" s="135"/>
+      <c r="U19" s="136" t="s">
         <v>277</v>
       </c>
-      <c r="V19" s="133"/>
-      <c r="W19" s="133"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="133"/>
-      <c r="Z19" s="134"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="115"/>
+      <c r="X19" s="115"/>
+      <c r="Y19" s="115"/>
+      <c r="Z19" s="116"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C20" s="146"/>
-      <c r="E20" s="118" t="s">
+      <c r="C20" s="99"/>
+      <c r="E20" s="141" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="111"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="98" t="s">
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="U20" s="135"/>
-      <c r="V20" s="136"/>
-      <c r="W20" s="136"/>
-      <c r="X20" s="136"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="137"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="119"/>
     </row>
     <row r="21" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="146"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="136"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="136"/>
-      <c r="Z21" s="137"/>
+      <c r="C21" s="99"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="105"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="119"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C22" s="146"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="139"/>
-      <c r="Z22" s="140"/>
+      <c r="C22" s="99"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="105"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="122"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="S24" s="144" t="s">
+      <c r="S24" s="137" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C25" s="146" t="s">
+      <c r="C25" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="S25" s="145"/>
+      <c r="S25" s="138"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C26" s="146"/>
-      <c r="E26" s="147" t="s">
+      <c r="C26" s="99"/>
+      <c r="E26" s="100" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
-      <c r="S26" s="145"/>
-      <c r="U26" s="143" t="s">
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
+      <c r="S26" s="138"/>
+      <c r="U26" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="V26" s="133"/>
-      <c r="W26" s="133"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="134"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="115"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="116"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C27" s="146"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="98" t="s">
+      <c r="C27" s="99"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="U27" s="135"/>
-      <c r="V27" s="136"/>
-      <c r="W27" s="136"/>
-      <c r="X27" s="136"/>
-      <c r="Y27" s="136"/>
-      <c r="Z27" s="137"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="119"/>
     </row>
     <row r="28" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="146"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="99"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="136"/>
-      <c r="Z28" s="137"/>
+      <c r="C28" s="99"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="105"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="119"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C29" s="146"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="117"/>
-      <c r="S29" s="145"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="140"/>
+      <c r="C29" s="99"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="108"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="122"/>
     </row>
     <row r="30" spans="3:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="146"/>
+      <c r="C30" s="99"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="123" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C33" s="151"/>
+      <c r="C33" s="124"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C34" s="151"/>
-      <c r="E34" s="143" t="s">
+      <c r="C34" s="124"/>
+      <c r="E34" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="134"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="116"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C35" s="151"/>
-      <c r="D35" s="98" t="s">
+      <c r="C35" s="124"/>
+      <c r="D35" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="135"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="137"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="119"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C36" s="151"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="137"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="119"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C37" s="151"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="140"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="122"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C39" s="148" t="s">
+      <c r="C39" s="112" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C40" s="149"/>
+      <c r="C40" s="113"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C41" s="149"/>
-      <c r="E41" s="143" t="s">
+      <c r="C41" s="113"/>
+      <c r="E41" s="114" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="134"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="116"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C42" s="149"/>
-      <c r="D42" s="98" t="s">
+      <c r="C42" s="113"/>
+      <c r="D42" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="E42" s="135"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="137"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="119"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C43" s="149"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="119"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C44" s="149"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="140"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="122"/>
     </row>
     <row r="46" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="141" t="s">
+      <c r="C46" s="97" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C47" s="142"/>
+      <c r="C47" s="98"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C48" s="142"/>
+      <c r="C48" s="98"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C49" s="142"/>
-      <c r="E49" s="143" t="s">
+      <c r="C49" s="98"/>
+      <c r="E49" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="116"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C50" s="142"/>
-      <c r="D50" s="98" t="s">
+      <c r="C50" s="98"/>
+      <c r="D50" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="E50" s="135"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="137"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="119"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C51" s="142"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="137"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="119"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C52" s="142"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="140"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="122"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C54" s="141" t="s">
+      <c r="C54" s="97" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C55" s="142"/>
+      <c r="C55" s="98"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C56" s="142"/>
+      <c r="C56" s="98"/>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C57" s="142"/>
-      <c r="E57" s="143" t="s">
+      <c r="C57" s="98"/>
+      <c r="E57" s="114" t="s">
         <v>293</v>
       </c>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="134"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="116"/>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C58" s="142"/>
-      <c r="D58" s="98" t="s">
+      <c r="C58" s="98"/>
+      <c r="D58" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="E58" s="135"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="137"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="119"/>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C59" s="142"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="137"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="119"/>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="C60" s="142"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="140"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R3:T6"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="L3:O5"/>
+    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="J14:O16"/>
+    <mergeCell ref="E20:K23"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="C9:D12"/>
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="F14:G16"/>
+    <mergeCell ref="U10:Y13"/>
+    <mergeCell ref="S17:S22"/>
+    <mergeCell ref="U19:Z22"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E49:J52"/>
+    <mergeCell ref="S24:S29"/>
+    <mergeCell ref="U26:Z29"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="E26:K29"/>
@@ -8880,27 +8901,6 @@
     <mergeCell ref="E34:J37"/>
     <mergeCell ref="E57:J60"/>
     <mergeCell ref="D58:D60"/>
-    <mergeCell ref="U10:Y13"/>
-    <mergeCell ref="S17:S22"/>
-    <mergeCell ref="U19:Z22"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E49:J52"/>
-    <mergeCell ref="S24:S29"/>
-    <mergeCell ref="U26:Z29"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="R3:T6"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="L3:O5"/>
-    <mergeCell ref="L8:O10"/>
-    <mergeCell ref="J14:O16"/>
-    <mergeCell ref="E20:K23"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="C9:D12"/>
-    <mergeCell ref="F9:H12"/>
-    <mergeCell ref="F14:G16"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <conditionalFormatting sqref="S17">
@@ -9165,11 +9165,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -9386,11 +9386,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -12511,12 +12511,12 @@
       <c r="B6" s="83" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="79">
         <v>6</v>
       </c>
@@ -12528,10 +12528,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" s="84"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B8" s="82" t="s">
@@ -12562,42 +12562,42 @@
       <c r="D9" s="74"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
       <c r="L14" s="80"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
       <c r="J15" s="80"/>
       <c r="K15" s="80"/>
       <c r="L15" s="80"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
       <c r="J16" s="80"/>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
@@ -12665,54 +12665,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS6" s="92" t="s">
+      <c r="AS6" s="93" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS7" s="93"/>
+      <c r="AS7" s="94"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS8" s="93"/>
+      <c r="AS8" s="94"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS9" s="93"/>
+      <c r="AS9" s="94"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS10" s="93"/>
+      <c r="AS10" s="94"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.4">
-      <c r="AS11" s="93"/>
+      <c r="AS11" s="94"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.4">
       <c r="N12" s="51"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
       <c r="V12" s="49"/>
-      <c r="AS12" s="93"/>
+      <c r="AS12" s="94"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C13" s="53"/>
@@ -12720,7 +12720,7 @@
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
       <c r="V13" s="49"/>
-      <c r="AS13" s="93"/>
+      <c r="AS13" s="94"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.4">
       <c r="C14" s="52"/>
@@ -12731,7 +12731,7 @@
       <c r="X14" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="AS14" s="93"/>
+      <c r="AS14" s="94"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A15" s="48"/>
